--- a/test17-interlace/dssim.xlsx
+++ b/test17-interlace/dssim.xlsx
@@ -2745,8 +2745,10 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="83">
+  <cellStyleXfs count="85">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -2846,7 +2848,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
-  <cellStyles count="83">
+  <cellStyles count="85">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
@@ -2888,6 +2890,7 @@
     <cellStyle name="Followed Hyperlink" xfId="78" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="80" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="82" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="84" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
@@ -2929,6 +2932,7 @@
     <cellStyle name="Hyperlink" xfId="77" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="79" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="81" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="83" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -3261,8 +3265,8 @@
   <dimension ref="A1:O134"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A117" activePane="bottomLeft" state="frozenSplit"/>
-      <selection pane="bottomLeft" activeCell="D3" sqref="D3:E122"/>
+      <pane ySplit="2" topLeftCell="A118" activePane="bottomLeft" state="frozenSplit"/>
+      <selection pane="bottomLeft" activeCell="D123" sqref="D123"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -3932,43 +3936,43 @@
     </row>
     <row r="16" spans="2:15">
       <c r="B16" s="6">
-        <v>1.1604E-2</v>
+        <v>1.1606E-2</v>
       </c>
       <c r="C16" s="11" t="s">
         <v>34</v>
       </c>
       <c r="D16" s="6">
-        <v>1.1604E-2</v>
+        <v>1.1606E-2</v>
       </c>
       <c r="E16" s="11" t="s">
         <v>754</v>
       </c>
       <c r="F16" s="6">
-        <v>1.1604E-2</v>
+        <v>1.1606E-2</v>
       </c>
       <c r="G16" s="11" t="s">
         <v>634</v>
       </c>
       <c r="H16" s="6">
-        <v>1.1604E-2</v>
+        <v>1.1606E-2</v>
       </c>
       <c r="I16" s="11" t="s">
         <v>514</v>
       </c>
       <c r="J16" s="6">
-        <v>1.1604E-2</v>
+        <v>1.1606E-2</v>
       </c>
       <c r="K16" s="11" t="s">
         <v>394</v>
       </c>
       <c r="L16" s="6">
-        <v>1.1604E-2</v>
+        <v>1.1606E-2</v>
       </c>
       <c r="M16" s="11" t="s">
         <v>274</v>
       </c>
       <c r="N16" s="6">
-        <v>1.1604E-2</v>
+        <v>1.1606E-2</v>
       </c>
       <c r="O16" s="11" t="s">
         <v>154</v>
@@ -4020,43 +4024,43 @@
     </row>
     <row r="18" spans="2:15">
       <c r="B18" s="2">
-        <v>4.2764999999999997E-2</v>
+        <v>4.2873000000000001E-2</v>
       </c>
       <c r="C18" s="12" t="s">
         <v>36</v>
       </c>
       <c r="D18" s="2">
-        <v>4.2764999999999997E-2</v>
+        <v>4.2873000000000001E-2</v>
       </c>
       <c r="E18" s="12" t="s">
         <v>756</v>
       </c>
       <c r="F18" s="2">
-        <v>4.2764999999999997E-2</v>
+        <v>4.2873000000000001E-2</v>
       </c>
       <c r="G18" s="12" t="s">
         <v>636</v>
       </c>
       <c r="H18" s="2">
-        <v>4.2764999999999997E-2</v>
+        <v>4.2873000000000001E-2</v>
       </c>
       <c r="I18" s="12" t="s">
         <v>516</v>
       </c>
       <c r="J18" s="2">
-        <v>4.2764999999999997E-2</v>
+        <v>4.2873000000000001E-2</v>
       </c>
       <c r="K18" s="12" t="s">
         <v>396</v>
       </c>
       <c r="L18" s="2">
-        <v>4.2764999999999997E-2</v>
+        <v>4.2873000000000001E-2</v>
       </c>
       <c r="M18" s="12" t="s">
         <v>276</v>
       </c>
       <c r="N18" s="2">
-        <v>4.2764999999999997E-2</v>
+        <v>4.2873000000000001E-2</v>
       </c>
       <c r="O18" s="12" t="s">
         <v>156</v>
@@ -4108,43 +4112,43 @@
     </row>
     <row r="20" spans="2:15">
       <c r="B20" s="2">
-        <v>6.3550000000000004E-3</v>
+        <v>6.3559999999999997E-3</v>
       </c>
       <c r="C20" s="12" t="s">
         <v>38</v>
       </c>
       <c r="D20" s="2">
-        <v>6.3550000000000004E-3</v>
+        <v>6.3559999999999997E-3</v>
       </c>
       <c r="E20" s="12" t="s">
         <v>758</v>
       </c>
       <c r="F20" s="2">
-        <v>6.3550000000000004E-3</v>
+        <v>6.3559999999999997E-3</v>
       </c>
       <c r="G20" s="12" t="s">
         <v>638</v>
       </c>
       <c r="H20" s="2">
-        <v>6.3550000000000004E-3</v>
+        <v>6.3559999999999997E-3</v>
       </c>
       <c r="I20" s="12" t="s">
         <v>518</v>
       </c>
       <c r="J20" s="2">
-        <v>6.3550000000000004E-3</v>
+        <v>6.3559999999999997E-3</v>
       </c>
       <c r="K20" s="12" t="s">
         <v>398</v>
       </c>
       <c r="L20" s="2">
-        <v>6.3550000000000004E-3</v>
+        <v>6.3559999999999997E-3</v>
       </c>
       <c r="M20" s="12" t="s">
         <v>278</v>
       </c>
       <c r="N20" s="2">
-        <v>6.3550000000000004E-3</v>
+        <v>6.3559999999999997E-3</v>
       </c>
       <c r="O20" s="12" t="s">
         <v>158</v>
@@ -4152,43 +4156,43 @@
     </row>
     <row r="21" spans="2:15">
       <c r="B21" s="6">
-        <v>1.776E-3</v>
+        <v>1.7780000000000001E-3</v>
       </c>
       <c r="C21" s="11" t="s">
         <v>39</v>
       </c>
       <c r="D21" s="6">
-        <v>1.776E-3</v>
+        <v>1.7780000000000001E-3</v>
       </c>
       <c r="E21" s="11" t="s">
         <v>759</v>
       </c>
       <c r="F21" s="6">
-        <v>1.776E-3</v>
+        <v>1.7780000000000001E-3</v>
       </c>
       <c r="G21" s="11" t="s">
         <v>639</v>
       </c>
       <c r="H21" s="6">
-        <v>1.776E-3</v>
+        <v>1.7780000000000001E-3</v>
       </c>
       <c r="I21" s="11" t="s">
         <v>519</v>
       </c>
       <c r="J21" s="6">
-        <v>1.776E-3</v>
+        <v>1.7780000000000001E-3</v>
       </c>
       <c r="K21" s="11" t="s">
         <v>399</v>
       </c>
       <c r="L21" s="6">
-        <v>1.776E-3</v>
+        <v>1.7780000000000001E-3</v>
       </c>
       <c r="M21" s="11" t="s">
         <v>279</v>
       </c>
       <c r="N21" s="6">
-        <v>1.776E-3</v>
+        <v>1.7780000000000001E-3</v>
       </c>
       <c r="O21" s="11" t="s">
         <v>159</v>
@@ -4240,43 +4244,43 @@
     </row>
     <row r="23" spans="2:15">
       <c r="B23" s="6">
-        <v>5.8380000000000003E-3</v>
+        <v>5.8409999999999998E-3</v>
       </c>
       <c r="C23" s="11" t="s">
         <v>41</v>
       </c>
       <c r="D23" s="6">
-        <v>5.8380000000000003E-3</v>
+        <v>5.8409999999999998E-3</v>
       </c>
       <c r="E23" s="11" t="s">
         <v>761</v>
       </c>
       <c r="F23" s="6">
-        <v>5.8380000000000003E-3</v>
+        <v>5.8409999999999998E-3</v>
       </c>
       <c r="G23" s="11" t="s">
         <v>641</v>
       </c>
       <c r="H23" s="6">
-        <v>5.8380000000000003E-3</v>
+        <v>5.8409999999999998E-3</v>
       </c>
       <c r="I23" s="11" t="s">
         <v>521</v>
       </c>
       <c r="J23" s="6">
-        <v>5.8380000000000003E-3</v>
+        <v>5.8409999999999998E-3</v>
       </c>
       <c r="K23" s="11" t="s">
         <v>401</v>
       </c>
       <c r="L23" s="6">
-        <v>5.8380000000000003E-3</v>
+        <v>5.8409999999999998E-3</v>
       </c>
       <c r="M23" s="11" t="s">
         <v>281</v>
       </c>
       <c r="N23" s="6">
-        <v>5.8380000000000003E-3</v>
+        <v>5.8409999999999998E-3</v>
       </c>
       <c r="O23" s="11" t="s">
         <v>161</v>
@@ -4284,43 +4288,43 @@
     </row>
     <row r="24" spans="2:15">
       <c r="B24" s="6">
-        <v>2.9009999999999999E-3</v>
+        <v>2.9020000000000001E-3</v>
       </c>
       <c r="C24" s="11" t="s">
         <v>42</v>
       </c>
       <c r="D24" s="6">
-        <v>2.9009999999999999E-3</v>
+        <v>2.9020000000000001E-3</v>
       </c>
       <c r="E24" s="11" t="s">
         <v>762</v>
       </c>
       <c r="F24" s="6">
-        <v>2.9009999999999999E-3</v>
+        <v>2.9020000000000001E-3</v>
       </c>
       <c r="G24" s="11" t="s">
         <v>642</v>
       </c>
       <c r="H24" s="6">
-        <v>2.9009999999999999E-3</v>
+        <v>2.9020000000000001E-3</v>
       </c>
       <c r="I24" s="11" t="s">
         <v>522</v>
       </c>
       <c r="J24" s="6">
-        <v>2.9009999999999999E-3</v>
+        <v>2.9020000000000001E-3</v>
       </c>
       <c r="K24" s="11" t="s">
         <v>402</v>
       </c>
       <c r="L24" s="6">
-        <v>2.9009999999999999E-3</v>
+        <v>2.9020000000000001E-3</v>
       </c>
       <c r="M24" s="11" t="s">
         <v>282</v>
       </c>
       <c r="N24" s="6">
-        <v>2.9009999999999999E-3</v>
+        <v>2.9020000000000001E-3</v>
       </c>
       <c r="O24" s="11" t="s">
         <v>162</v>
@@ -4372,43 +4376,43 @@
     </row>
     <row r="26" spans="2:15">
       <c r="B26" s="6">
-        <v>3.9579999999999997E-3</v>
+        <v>3.9529999999999999E-3</v>
       </c>
       <c r="C26" s="11" t="s">
         <v>44</v>
       </c>
       <c r="D26" s="6">
-        <v>3.9579999999999997E-3</v>
+        <v>3.9529999999999999E-3</v>
       </c>
       <c r="E26" s="11" t="s">
         <v>764</v>
       </c>
       <c r="F26" s="6">
-        <v>3.9579999999999997E-3</v>
+        <v>3.9529999999999999E-3</v>
       </c>
       <c r="G26" s="11" t="s">
         <v>644</v>
       </c>
       <c r="H26" s="6">
-        <v>3.9579999999999997E-3</v>
+        <v>3.9529999999999999E-3</v>
       </c>
       <c r="I26" s="11" t="s">
         <v>524</v>
       </c>
       <c r="J26" s="6">
-        <v>3.9579999999999997E-3</v>
+        <v>3.9529999999999999E-3</v>
       </c>
       <c r="K26" s="11" t="s">
         <v>404</v>
       </c>
       <c r="L26" s="6">
-        <v>3.9579999999999997E-3</v>
+        <v>3.9529999999999999E-3</v>
       </c>
       <c r="M26" s="11" t="s">
         <v>284</v>
       </c>
       <c r="N26" s="6">
-        <v>3.9579999999999997E-3</v>
+        <v>3.9529999999999999E-3</v>
       </c>
       <c r="O26" s="11" t="s">
         <v>164</v>
@@ -4416,43 +4420,43 @@
     </row>
     <row r="27" spans="2:15">
       <c r="B27" s="2">
-        <v>1.2260000000000001E-3</v>
+        <v>1.225E-3</v>
       </c>
       <c r="C27" s="12" t="s">
         <v>45</v>
       </c>
       <c r="D27" s="2">
-        <v>1.2260000000000001E-3</v>
+        <v>1.225E-3</v>
       </c>
       <c r="E27" s="12" t="s">
         <v>765</v>
       </c>
       <c r="F27" s="2">
-        <v>1.2260000000000001E-3</v>
+        <v>1.225E-3</v>
       </c>
       <c r="G27" s="12" t="s">
         <v>645</v>
       </c>
       <c r="H27" s="2">
-        <v>1.2260000000000001E-3</v>
+        <v>1.225E-3</v>
       </c>
       <c r="I27" s="12" t="s">
         <v>525</v>
       </c>
       <c r="J27" s="2">
-        <v>1.2260000000000001E-3</v>
+        <v>1.225E-3</v>
       </c>
       <c r="K27" s="12" t="s">
         <v>405</v>
       </c>
       <c r="L27" s="2">
-        <v>1.2260000000000001E-3</v>
+        <v>1.225E-3</v>
       </c>
       <c r="M27" s="12" t="s">
         <v>285</v>
       </c>
       <c r="N27" s="2">
-        <v>1.2260000000000001E-3</v>
+        <v>1.225E-3</v>
       </c>
       <c r="O27" s="12" t="s">
         <v>165</v>
@@ -4460,43 +4464,43 @@
     </row>
     <row r="28" spans="2:15">
       <c r="B28" s="2">
-        <v>3.0609999999999999E-3</v>
+        <v>3.088E-3</v>
       </c>
       <c r="C28" s="12" t="s">
         <v>46</v>
       </c>
       <c r="D28" s="2">
-        <v>3.0609999999999999E-3</v>
+        <v>3.088E-3</v>
       </c>
       <c r="E28" s="12" t="s">
         <v>766</v>
       </c>
       <c r="F28" s="2">
-        <v>3.0609999999999999E-3</v>
+        <v>3.088E-3</v>
       </c>
       <c r="G28" s="12" t="s">
         <v>646</v>
       </c>
       <c r="H28" s="2">
-        <v>3.0609999999999999E-3</v>
+        <v>3.088E-3</v>
       </c>
       <c r="I28" s="12" t="s">
         <v>526</v>
       </c>
       <c r="J28" s="2">
-        <v>3.0609999999999999E-3</v>
+        <v>3.088E-3</v>
       </c>
       <c r="K28" s="12" t="s">
         <v>406</v>
       </c>
       <c r="L28" s="2">
-        <v>3.0609999999999999E-3</v>
+        <v>3.088E-3</v>
       </c>
       <c r="M28" s="12" t="s">
         <v>286</v>
       </c>
       <c r="N28" s="2">
-        <v>3.0609999999999999E-3</v>
+        <v>3.088E-3</v>
       </c>
       <c r="O28" s="12" t="s">
         <v>166</v>
@@ -4504,43 +4508,43 @@
     </row>
     <row r="29" spans="2:15">
       <c r="B29" s="2">
-        <v>6.1419999999999999E-3</v>
+        <v>6.1970000000000003E-3</v>
       </c>
       <c r="C29" s="12" t="s">
         <v>47</v>
       </c>
       <c r="D29" s="2">
-        <v>6.1419999999999999E-3</v>
+        <v>6.1970000000000003E-3</v>
       </c>
       <c r="E29" s="12" t="s">
         <v>767</v>
       </c>
       <c r="F29" s="2">
-        <v>6.1419999999999999E-3</v>
+        <v>6.1970000000000003E-3</v>
       </c>
       <c r="G29" s="12" t="s">
         <v>647</v>
       </c>
       <c r="H29" s="2">
-        <v>6.1419999999999999E-3</v>
+        <v>6.1970000000000003E-3</v>
       </c>
       <c r="I29" s="12" t="s">
         <v>527</v>
       </c>
       <c r="J29" s="2">
-        <v>6.1419999999999999E-3</v>
+        <v>6.1970000000000003E-3</v>
       </c>
       <c r="K29" s="12" t="s">
         <v>407</v>
       </c>
       <c r="L29" s="2">
-        <v>6.1419999999999999E-3</v>
+        <v>6.1970000000000003E-3</v>
       </c>
       <c r="M29" s="12" t="s">
         <v>287</v>
       </c>
       <c r="N29" s="2">
-        <v>6.1419999999999999E-3</v>
+        <v>6.1970000000000003E-3</v>
       </c>
       <c r="O29" s="12" t="s">
         <v>167</v>
@@ -4548,43 +4552,43 @@
     </row>
     <row r="30" spans="2:15">
       <c r="B30" s="2">
-        <v>4.3999999999999999E-5</v>
+        <v>4.6E-5</v>
       </c>
       <c r="C30" s="12" t="s">
         <v>48</v>
       </c>
       <c r="D30" s="2">
-        <v>4.3999999999999999E-5</v>
+        <v>4.6E-5</v>
       </c>
       <c r="E30" s="12" t="s">
         <v>768</v>
       </c>
       <c r="F30" s="2">
-        <v>4.3999999999999999E-5</v>
+        <v>4.6E-5</v>
       </c>
       <c r="G30" s="12" t="s">
         <v>648</v>
       </c>
       <c r="H30" s="2">
-        <v>4.3999999999999999E-5</v>
+        <v>4.6E-5</v>
       </c>
       <c r="I30" s="12" t="s">
         <v>528</v>
       </c>
       <c r="J30" s="2">
-        <v>4.3999999999999999E-5</v>
+        <v>4.6E-5</v>
       </c>
       <c r="K30" s="12" t="s">
         <v>408</v>
       </c>
       <c r="L30" s="2">
-        <v>4.3999999999999999E-5</v>
+        <v>4.6E-5</v>
       </c>
       <c r="M30" s="12" t="s">
         <v>288</v>
       </c>
       <c r="N30" s="2">
-        <v>4.3999999999999999E-5</v>
+        <v>4.6E-5</v>
       </c>
       <c r="O30" s="12" t="s">
         <v>168</v>
@@ -4636,43 +4640,43 @@
     </row>
     <row r="32" spans="2:15">
       <c r="B32" s="2">
-        <v>9.6699999999999998E-4</v>
+        <v>9.6599999999999995E-4</v>
       </c>
       <c r="C32" s="12" t="s">
         <v>50</v>
       </c>
       <c r="D32" s="2">
-        <v>9.6699999999999998E-4</v>
+        <v>9.6599999999999995E-4</v>
       </c>
       <c r="E32" s="12" t="s">
         <v>770</v>
       </c>
       <c r="F32" s="2">
-        <v>9.6699999999999998E-4</v>
+        <v>9.6599999999999995E-4</v>
       </c>
       <c r="G32" s="12" t="s">
         <v>650</v>
       </c>
       <c r="H32" s="2">
-        <v>9.6699999999999998E-4</v>
+        <v>9.6599999999999995E-4</v>
       </c>
       <c r="I32" s="12" t="s">
         <v>530</v>
       </c>
       <c r="J32" s="2">
-        <v>9.6699999999999998E-4</v>
+        <v>9.6599999999999995E-4</v>
       </c>
       <c r="K32" s="12" t="s">
         <v>410</v>
       </c>
       <c r="L32" s="2">
-        <v>9.6699999999999998E-4</v>
+        <v>9.6599999999999995E-4</v>
       </c>
       <c r="M32" s="12" t="s">
         <v>290</v>
       </c>
       <c r="N32" s="2">
-        <v>9.6699999999999998E-4</v>
+        <v>9.6599999999999995E-4</v>
       </c>
       <c r="O32" s="12" t="s">
         <v>170</v>
@@ -4768,43 +4772,43 @@
     </row>
     <row r="35" spans="2:15">
       <c r="B35" s="2">
-        <v>2.7712000000000001E-2</v>
+        <v>2.6932999999999999E-2</v>
       </c>
       <c r="C35" s="12" t="s">
         <v>53</v>
       </c>
       <c r="D35" s="2">
-        <v>2.7712000000000001E-2</v>
+        <v>2.6932999999999999E-2</v>
       </c>
       <c r="E35" s="12" t="s">
         <v>773</v>
       </c>
       <c r="F35" s="2">
-        <v>2.7712000000000001E-2</v>
+        <v>2.6932999999999999E-2</v>
       </c>
       <c r="G35" s="12" t="s">
         <v>653</v>
       </c>
       <c r="H35" s="2">
-        <v>2.7712000000000001E-2</v>
+        <v>2.6932999999999999E-2</v>
       </c>
       <c r="I35" s="12" t="s">
         <v>533</v>
       </c>
       <c r="J35" s="2">
-        <v>2.7712000000000001E-2</v>
+        <v>2.6932999999999999E-2</v>
       </c>
       <c r="K35" s="12" t="s">
         <v>413</v>
       </c>
       <c r="L35" s="2">
-        <v>2.7712000000000001E-2</v>
+        <v>2.6932999999999999E-2</v>
       </c>
       <c r="M35" s="12" t="s">
         <v>293</v>
       </c>
       <c r="N35" s="2">
-        <v>2.7712000000000001E-2</v>
+        <v>2.6932999999999999E-2</v>
       </c>
       <c r="O35" s="12" t="s">
         <v>173</v>
@@ -4988,43 +4992,43 @@
     </row>
     <row r="40" spans="2:15">
       <c r="B40" s="2">
-        <v>1.4735E-2</v>
+        <v>1.4736000000000001E-2</v>
       </c>
       <c r="C40" s="12" t="s">
         <v>58</v>
       </c>
       <c r="D40" s="2">
-        <v>1.4735E-2</v>
+        <v>1.4736000000000001E-2</v>
       </c>
       <c r="E40" s="12" t="s">
         <v>778</v>
       </c>
       <c r="F40" s="2">
-        <v>1.4735E-2</v>
+        <v>1.4736000000000001E-2</v>
       </c>
       <c r="G40" s="12" t="s">
         <v>658</v>
       </c>
       <c r="H40" s="2">
-        <v>1.4735E-2</v>
+        <v>1.4736000000000001E-2</v>
       </c>
       <c r="I40" s="12" t="s">
         <v>538</v>
       </c>
       <c r="J40" s="2">
-        <v>1.4735E-2</v>
+        <v>1.4736000000000001E-2</v>
       </c>
       <c r="K40" s="12" t="s">
         <v>418</v>
       </c>
       <c r="L40" s="2">
-        <v>1.4735E-2</v>
+        <v>1.4736000000000001E-2</v>
       </c>
       <c r="M40" s="12" t="s">
         <v>298</v>
       </c>
       <c r="N40" s="2">
-        <v>1.4735E-2</v>
+        <v>1.4736000000000001E-2</v>
       </c>
       <c r="O40" s="12" t="s">
         <v>178</v>
@@ -5120,43 +5124,43 @@
     </row>
     <row r="43" spans="2:15">
       <c r="B43" s="2">
-        <v>4.5900000000000003E-3</v>
+        <v>4.5880000000000001E-3</v>
       </c>
       <c r="C43" s="12" t="s">
         <v>61</v>
       </c>
       <c r="D43" s="2">
-        <v>4.5900000000000003E-3</v>
+        <v>4.5880000000000001E-3</v>
       </c>
       <c r="E43" s="12" t="s">
         <v>781</v>
       </c>
       <c r="F43" s="2">
-        <v>4.5900000000000003E-3</v>
+        <v>4.5880000000000001E-3</v>
       </c>
       <c r="G43" s="12" t="s">
         <v>661</v>
       </c>
       <c r="H43" s="2">
-        <v>4.5900000000000003E-3</v>
+        <v>4.5880000000000001E-3</v>
       </c>
       <c r="I43" s="12" t="s">
         <v>541</v>
       </c>
       <c r="J43" s="2">
-        <v>4.5900000000000003E-3</v>
+        <v>4.5880000000000001E-3</v>
       </c>
       <c r="K43" s="12" t="s">
         <v>421</v>
       </c>
       <c r="L43" s="2">
-        <v>4.5900000000000003E-3</v>
+        <v>4.5880000000000001E-3</v>
       </c>
       <c r="M43" s="12" t="s">
         <v>301</v>
       </c>
       <c r="N43" s="2">
-        <v>4.5900000000000003E-3</v>
+        <v>4.5880000000000001E-3</v>
       </c>
       <c r="O43" s="12" t="s">
         <v>181</v>
@@ -5428,43 +5432,43 @@
     </row>
     <row r="50" spans="2:15">
       <c r="B50" s="6">
-        <v>8.8889999999999993E-3</v>
+        <v>8.9289999999999994E-3</v>
       </c>
       <c r="C50" s="11" t="s">
         <v>68</v>
       </c>
       <c r="D50" s="6">
-        <v>8.8889999999999993E-3</v>
+        <v>8.9289999999999994E-3</v>
       </c>
       <c r="E50" s="11" t="s">
         <v>788</v>
       </c>
       <c r="F50" s="6">
-        <v>8.8889999999999993E-3</v>
+        <v>8.9289999999999994E-3</v>
       </c>
       <c r="G50" s="11" t="s">
         <v>668</v>
       </c>
       <c r="H50" s="6">
-        <v>8.8889999999999993E-3</v>
+        <v>8.9289999999999994E-3</v>
       </c>
       <c r="I50" s="11" t="s">
         <v>548</v>
       </c>
       <c r="J50" s="6">
-        <v>8.8889999999999993E-3</v>
+        <v>8.9289999999999994E-3</v>
       </c>
       <c r="K50" s="11" t="s">
         <v>428</v>
       </c>
       <c r="L50" s="6">
-        <v>8.8889999999999993E-3</v>
+        <v>8.9289999999999994E-3</v>
       </c>
       <c r="M50" s="11" t="s">
         <v>308</v>
       </c>
       <c r="N50" s="6">
-        <v>8.8889999999999993E-3</v>
+        <v>8.9289999999999994E-3</v>
       </c>
       <c r="O50" s="11" t="s">
         <v>188</v>
@@ -5472,43 +5476,43 @@
     </row>
     <row r="51" spans="2:15">
       <c r="B51" s="6">
-        <v>3.9370000000000004E-3</v>
+        <v>3.9389999999999998E-3</v>
       </c>
       <c r="C51" s="11" t="s">
         <v>69</v>
       </c>
       <c r="D51" s="6">
-        <v>3.9370000000000004E-3</v>
+        <v>3.9389999999999998E-3</v>
       </c>
       <c r="E51" s="11" t="s">
         <v>789</v>
       </c>
       <c r="F51" s="6">
-        <v>3.9370000000000004E-3</v>
+        <v>3.9389999999999998E-3</v>
       </c>
       <c r="G51" s="11" t="s">
         <v>669</v>
       </c>
       <c r="H51" s="6">
-        <v>3.9370000000000004E-3</v>
+        <v>3.9389999999999998E-3</v>
       </c>
       <c r="I51" s="11" t="s">
         <v>549</v>
       </c>
       <c r="J51" s="6">
-        <v>3.9370000000000004E-3</v>
+        <v>3.9389999999999998E-3</v>
       </c>
       <c r="K51" s="11" t="s">
         <v>429</v>
       </c>
       <c r="L51" s="6">
-        <v>3.9370000000000004E-3</v>
+        <v>3.9389999999999998E-3</v>
       </c>
       <c r="M51" s="11" t="s">
         <v>309</v>
       </c>
       <c r="N51" s="6">
-        <v>3.9370000000000004E-3</v>
+        <v>3.9389999999999998E-3</v>
       </c>
       <c r="O51" s="11" t="s">
         <v>189</v>
@@ -5648,43 +5652,43 @@
     </row>
     <row r="55" spans="2:15">
       <c r="B55" s="6">
-        <v>6.9540000000000001E-3</v>
+        <v>6.953E-3</v>
       </c>
       <c r="C55" s="11" t="s">
         <v>73</v>
       </c>
       <c r="D55" s="6">
-        <v>6.9540000000000001E-3</v>
+        <v>6.953E-3</v>
       </c>
       <c r="E55" s="11" t="s">
         <v>793</v>
       </c>
       <c r="F55" s="6">
-        <v>6.9540000000000001E-3</v>
+        <v>6.953E-3</v>
       </c>
       <c r="G55" s="11" t="s">
         <v>673</v>
       </c>
       <c r="H55" s="6">
-        <v>6.9540000000000001E-3</v>
+        <v>6.953E-3</v>
       </c>
       <c r="I55" s="11" t="s">
         <v>553</v>
       </c>
       <c r="J55" s="6">
-        <v>6.9540000000000001E-3</v>
+        <v>6.953E-3</v>
       </c>
       <c r="K55" s="11" t="s">
         <v>433</v>
       </c>
       <c r="L55" s="6">
-        <v>6.9540000000000001E-3</v>
+        <v>6.953E-3</v>
       </c>
       <c r="M55" s="11" t="s">
         <v>313</v>
       </c>
       <c r="N55" s="6">
-        <v>6.9540000000000001E-3</v>
+        <v>6.953E-3</v>
       </c>
       <c r="O55" s="11" t="s">
         <v>193</v>
@@ -5824,43 +5828,43 @@
     </row>
     <row r="59" spans="2:15">
       <c r="B59" s="6">
-        <v>5.04E-4</v>
+        <v>5.0500000000000002E-4</v>
       </c>
       <c r="C59" s="11" t="s">
         <v>77</v>
       </c>
       <c r="D59" s="6">
-        <v>5.04E-4</v>
+        <v>5.0500000000000002E-4</v>
       </c>
       <c r="E59" s="11" t="s">
         <v>797</v>
       </c>
       <c r="F59" s="6">
-        <v>5.04E-4</v>
+        <v>5.0500000000000002E-4</v>
       </c>
       <c r="G59" s="11" t="s">
         <v>677</v>
       </c>
       <c r="H59" s="6">
-        <v>5.04E-4</v>
+        <v>5.0500000000000002E-4</v>
       </c>
       <c r="I59" s="11" t="s">
         <v>557</v>
       </c>
       <c r="J59" s="6">
-        <v>5.04E-4</v>
+        <v>5.0500000000000002E-4</v>
       </c>
       <c r="K59" s="11" t="s">
         <v>437</v>
       </c>
       <c r="L59" s="6">
-        <v>5.04E-4</v>
+        <v>5.0500000000000002E-4</v>
       </c>
       <c r="M59" s="11" t="s">
         <v>317</v>
       </c>
       <c r="N59" s="6">
-        <v>5.04E-4</v>
+        <v>5.0500000000000002E-4</v>
       </c>
       <c r="O59" s="11" t="s">
         <v>197</v>
@@ -5868,43 +5872,43 @@
     </row>
     <row r="60" spans="2:15">
       <c r="B60" s="6">
-        <v>1.016E-3</v>
+        <v>1.0269999999999999E-3</v>
       </c>
       <c r="C60" s="11" t="s">
         <v>78</v>
       </c>
       <c r="D60" s="6">
-        <v>1.016E-3</v>
+        <v>1.0269999999999999E-3</v>
       </c>
       <c r="E60" s="11" t="s">
         <v>798</v>
       </c>
       <c r="F60" s="6">
-        <v>1.016E-3</v>
+        <v>1.0269999999999999E-3</v>
       </c>
       <c r="G60" s="11" t="s">
         <v>678</v>
       </c>
       <c r="H60" s="6">
-        <v>1.016E-3</v>
+        <v>1.0269999999999999E-3</v>
       </c>
       <c r="I60" s="11" t="s">
         <v>558</v>
       </c>
       <c r="J60" s="6">
-        <v>1.016E-3</v>
+        <v>1.0269999999999999E-3</v>
       </c>
       <c r="K60" s="11" t="s">
         <v>438</v>
       </c>
       <c r="L60" s="6">
-        <v>1.016E-3</v>
+        <v>1.0269999999999999E-3</v>
       </c>
       <c r="M60" s="11" t="s">
         <v>318</v>
       </c>
       <c r="N60" s="6">
-        <v>1.016E-3</v>
+        <v>1.0269999999999999E-3</v>
       </c>
       <c r="O60" s="11" t="s">
         <v>198</v>
@@ -5956,43 +5960,43 @@
     </row>
     <row r="62" spans="2:15">
       <c r="B62" s="6">
-        <v>2.238E-3</v>
+        <v>2.2399999999999998E-3</v>
       </c>
       <c r="C62" s="11" t="s">
         <v>80</v>
       </c>
       <c r="D62" s="6">
-        <v>2.238E-3</v>
+        <v>2.2399999999999998E-3</v>
       </c>
       <c r="E62" s="11" t="s">
         <v>800</v>
       </c>
       <c r="F62" s="6">
-        <v>2.238E-3</v>
+        <v>2.2399999999999998E-3</v>
       </c>
       <c r="G62" s="11" t="s">
         <v>680</v>
       </c>
       <c r="H62" s="6">
-        <v>2.238E-3</v>
+        <v>2.2399999999999998E-3</v>
       </c>
       <c r="I62" s="11" t="s">
         <v>560</v>
       </c>
       <c r="J62" s="6">
-        <v>2.238E-3</v>
+        <v>2.2399999999999998E-3</v>
       </c>
       <c r="K62" s="11" t="s">
         <v>440</v>
       </c>
       <c r="L62" s="6">
-        <v>2.238E-3</v>
+        <v>2.2399999999999998E-3</v>
       </c>
       <c r="M62" s="11" t="s">
         <v>320</v>
       </c>
       <c r="N62" s="6">
-        <v>2.238E-3</v>
+        <v>2.2399999999999998E-3</v>
       </c>
       <c r="O62" s="11" t="s">
         <v>200</v>
@@ -6088,43 +6092,43 @@
     </row>
     <row r="65" spans="2:15">
       <c r="B65" s="6">
-        <v>5.31E-4</v>
+        <v>5.4100000000000003E-4</v>
       </c>
       <c r="C65" s="11" t="s">
         <v>83</v>
       </c>
       <c r="D65" s="6">
-        <v>5.31E-4</v>
+        <v>5.4100000000000003E-4</v>
       </c>
       <c r="E65" s="11" t="s">
         <v>803</v>
       </c>
       <c r="F65" s="6">
-        <v>5.31E-4</v>
+        <v>5.4100000000000003E-4</v>
       </c>
       <c r="G65" s="11" t="s">
         <v>683</v>
       </c>
       <c r="H65" s="6">
-        <v>5.31E-4</v>
+        <v>5.4100000000000003E-4</v>
       </c>
       <c r="I65" s="11" t="s">
         <v>563</v>
       </c>
       <c r="J65" s="6">
-        <v>5.31E-4</v>
+        <v>5.4100000000000003E-4</v>
       </c>
       <c r="K65" s="11" t="s">
         <v>443</v>
       </c>
       <c r="L65" s="6">
-        <v>5.31E-4</v>
+        <v>5.4100000000000003E-4</v>
       </c>
       <c r="M65" s="11" t="s">
         <v>323</v>
       </c>
       <c r="N65" s="6">
-        <v>5.31E-4</v>
+        <v>5.4100000000000003E-4</v>
       </c>
       <c r="O65" s="11" t="s">
         <v>203</v>
@@ -6132,43 +6136,43 @@
     </row>
     <row r="66" spans="2:15">
       <c r="B66" s="6">
-        <v>4.1510000000000002E-3</v>
+        <v>4.1939999999999998E-3</v>
       </c>
       <c r="C66" s="11" t="s">
         <v>84</v>
       </c>
       <c r="D66" s="6">
-        <v>4.1510000000000002E-3</v>
+        <v>4.1939999999999998E-3</v>
       </c>
       <c r="E66" s="11" t="s">
         <v>804</v>
       </c>
       <c r="F66" s="6">
-        <v>4.1510000000000002E-3</v>
+        <v>4.1939999999999998E-3</v>
       </c>
       <c r="G66" s="11" t="s">
         <v>684</v>
       </c>
       <c r="H66" s="6">
-        <v>4.1510000000000002E-3</v>
+        <v>4.1939999999999998E-3</v>
       </c>
       <c r="I66" s="11" t="s">
         <v>564</v>
       </c>
       <c r="J66" s="6">
-        <v>4.1510000000000002E-3</v>
+        <v>4.1939999999999998E-3</v>
       </c>
       <c r="K66" s="11" t="s">
         <v>444</v>
       </c>
       <c r="L66" s="6">
-        <v>4.1510000000000002E-3</v>
+        <v>4.1939999999999998E-3</v>
       </c>
       <c r="M66" s="11" t="s">
         <v>324</v>
       </c>
       <c r="N66" s="6">
-        <v>4.1510000000000002E-3</v>
+        <v>4.1939999999999998E-3</v>
       </c>
       <c r="O66" s="11" t="s">
         <v>204</v>
@@ -6176,43 +6180,43 @@
     </row>
     <row r="67" spans="2:15">
       <c r="B67" s="6">
-        <v>7.4399999999999998E-4</v>
+        <v>7.4200000000000004E-4</v>
       </c>
       <c r="C67" s="11" t="s">
         <v>85</v>
       </c>
       <c r="D67" s="6">
-        <v>7.4399999999999998E-4</v>
+        <v>7.4200000000000004E-4</v>
       </c>
       <c r="E67" s="11" t="s">
         <v>805</v>
       </c>
       <c r="F67" s="6">
-        <v>7.4399999999999998E-4</v>
+        <v>7.4200000000000004E-4</v>
       </c>
       <c r="G67" s="11" t="s">
         <v>685</v>
       </c>
       <c r="H67" s="6">
-        <v>7.4399999999999998E-4</v>
+        <v>7.4200000000000004E-4</v>
       </c>
       <c r="I67" s="11" t="s">
         <v>565</v>
       </c>
       <c r="J67" s="6">
-        <v>7.4399999999999998E-4</v>
+        <v>7.4200000000000004E-4</v>
       </c>
       <c r="K67" s="11" t="s">
         <v>445</v>
       </c>
       <c r="L67" s="6">
-        <v>7.4399999999999998E-4</v>
+        <v>7.4200000000000004E-4</v>
       </c>
       <c r="M67" s="11" t="s">
         <v>325</v>
       </c>
       <c r="N67" s="6">
-        <v>7.4399999999999998E-4</v>
+        <v>7.4200000000000004E-4</v>
       </c>
       <c r="O67" s="11" t="s">
         <v>205</v>
@@ -6264,43 +6268,43 @@
     </row>
     <row r="69" spans="2:15">
       <c r="B69" s="6">
-        <v>1.8779999999999999E-3</v>
+        <v>1.879E-3</v>
       </c>
       <c r="C69" s="11" t="s">
         <v>87</v>
       </c>
       <c r="D69" s="6">
-        <v>1.8779999999999999E-3</v>
+        <v>1.879E-3</v>
       </c>
       <c r="E69" s="11" t="s">
         <v>807</v>
       </c>
       <c r="F69" s="6">
-        <v>1.8779999999999999E-3</v>
+        <v>1.879E-3</v>
       </c>
       <c r="G69" s="11" t="s">
         <v>687</v>
       </c>
       <c r="H69" s="6">
-        <v>1.8779999999999999E-3</v>
+        <v>1.879E-3</v>
       </c>
       <c r="I69" s="11" t="s">
         <v>567</v>
       </c>
       <c r="J69" s="6">
-        <v>1.8779999999999999E-3</v>
+        <v>1.879E-3</v>
       </c>
       <c r="K69" s="11" t="s">
         <v>447</v>
       </c>
       <c r="L69" s="6">
-        <v>1.8779999999999999E-3</v>
+        <v>1.879E-3</v>
       </c>
       <c r="M69" s="11" t="s">
         <v>327</v>
       </c>
       <c r="N69" s="6">
-        <v>1.8779999999999999E-3</v>
+        <v>1.879E-3</v>
       </c>
       <c r="O69" s="11" t="s">
         <v>207</v>
@@ -6308,43 +6312,43 @@
     </row>
     <row r="70" spans="2:15">
       <c r="B70" s="6">
-        <v>1.4729999999999999E-3</v>
+        <v>1.513E-3</v>
       </c>
       <c r="C70" s="11" t="s">
         <v>88</v>
       </c>
       <c r="D70" s="6">
-        <v>1.4729999999999999E-3</v>
+        <v>1.513E-3</v>
       </c>
       <c r="E70" s="11" t="s">
         <v>808</v>
       </c>
       <c r="F70" s="6">
-        <v>1.4729999999999999E-3</v>
+        <v>1.513E-3</v>
       </c>
       <c r="G70" s="11" t="s">
         <v>688</v>
       </c>
       <c r="H70" s="6">
-        <v>1.4729999999999999E-3</v>
+        <v>1.513E-3</v>
       </c>
       <c r="I70" s="11" t="s">
         <v>568</v>
       </c>
       <c r="J70" s="6">
-        <v>1.4729999999999999E-3</v>
+        <v>1.513E-3</v>
       </c>
       <c r="K70" s="11" t="s">
         <v>448</v>
       </c>
       <c r="L70" s="6">
-        <v>1.4729999999999999E-3</v>
+        <v>1.513E-3</v>
       </c>
       <c r="M70" s="11" t="s">
         <v>328</v>
       </c>
       <c r="N70" s="6">
-        <v>1.4729999999999999E-3</v>
+        <v>1.513E-3</v>
       </c>
       <c r="O70" s="11" t="s">
         <v>208</v>
@@ -6352,43 +6356,43 @@
     </row>
     <row r="71" spans="2:15">
       <c r="B71" s="6">
-        <v>5.829E-3</v>
+        <v>5.8650000000000004E-3</v>
       </c>
       <c r="C71" s="11" t="s">
         <v>89</v>
       </c>
       <c r="D71" s="6">
-        <v>5.829E-3</v>
+        <v>5.8650000000000004E-3</v>
       </c>
       <c r="E71" s="11" t="s">
         <v>809</v>
       </c>
       <c r="F71" s="6">
-        <v>5.829E-3</v>
+        <v>5.8650000000000004E-3</v>
       </c>
       <c r="G71" s="11" t="s">
         <v>689</v>
       </c>
       <c r="H71" s="6">
-        <v>5.829E-3</v>
+        <v>5.8650000000000004E-3</v>
       </c>
       <c r="I71" s="11" t="s">
         <v>569</v>
       </c>
       <c r="J71" s="6">
-        <v>5.829E-3</v>
+        <v>5.8650000000000004E-3</v>
       </c>
       <c r="K71" s="11" t="s">
         <v>449</v>
       </c>
       <c r="L71" s="6">
-        <v>5.829E-3</v>
+        <v>5.8650000000000004E-3</v>
       </c>
       <c r="M71" s="11" t="s">
         <v>329</v>
       </c>
       <c r="N71" s="6">
-        <v>5.829E-3</v>
+        <v>5.8650000000000004E-3</v>
       </c>
       <c r="O71" s="11" t="s">
         <v>209</v>
@@ -6396,43 +6400,43 @@
     </row>
     <row r="72" spans="2:15">
       <c r="B72" s="6">
-        <v>1.4404999999999999E-2</v>
+        <v>1.4533000000000001E-2</v>
       </c>
       <c r="C72" s="11" t="s">
         <v>90</v>
       </c>
       <c r="D72" s="6">
-        <v>1.4404999999999999E-2</v>
+        <v>1.4533000000000001E-2</v>
       </c>
       <c r="E72" s="11" t="s">
         <v>810</v>
       </c>
       <c r="F72" s="6">
-        <v>1.4404999999999999E-2</v>
+        <v>1.4533000000000001E-2</v>
       </c>
       <c r="G72" s="11" t="s">
         <v>690</v>
       </c>
       <c r="H72" s="6">
-        <v>1.4404999999999999E-2</v>
+        <v>1.4533000000000001E-2</v>
       </c>
       <c r="I72" s="11" t="s">
         <v>570</v>
       </c>
       <c r="J72" s="6">
-        <v>1.4404999999999999E-2</v>
+        <v>1.4533000000000001E-2</v>
       </c>
       <c r="K72" s="11" t="s">
         <v>450</v>
       </c>
       <c r="L72" s="6">
-        <v>1.4404999999999999E-2</v>
+        <v>1.4533000000000001E-2</v>
       </c>
       <c r="M72" s="11" t="s">
         <v>330</v>
       </c>
       <c r="N72" s="6">
-        <v>1.4404999999999999E-2</v>
+        <v>1.4533000000000001E-2</v>
       </c>
       <c r="O72" s="11" t="s">
         <v>210</v>
@@ -6484,43 +6488,43 @@
     </row>
     <row r="74" spans="2:15">
       <c r="B74" s="6">
-        <v>3.4459999999999998E-3</v>
+        <v>3.4749999999999998E-3</v>
       </c>
       <c r="C74" s="11" t="s">
         <v>92</v>
       </c>
       <c r="D74" s="6">
-        <v>3.4459999999999998E-3</v>
+        <v>3.4749999999999998E-3</v>
       </c>
       <c r="E74" s="11" t="s">
         <v>812</v>
       </c>
       <c r="F74" s="6">
-        <v>3.4459999999999998E-3</v>
+        <v>3.4749999999999998E-3</v>
       </c>
       <c r="G74" s="11" t="s">
         <v>692</v>
       </c>
       <c r="H74" s="6">
-        <v>3.4459999999999998E-3</v>
+        <v>3.4749999999999998E-3</v>
       </c>
       <c r="I74" s="11" t="s">
         <v>572</v>
       </c>
       <c r="J74" s="6">
-        <v>3.4459999999999998E-3</v>
+        <v>3.4749999999999998E-3</v>
       </c>
       <c r="K74" s="11" t="s">
         <v>452</v>
       </c>
       <c r="L74" s="6">
-        <v>3.4459999999999998E-3</v>
+        <v>3.4749999999999998E-3</v>
       </c>
       <c r="M74" s="11" t="s">
         <v>332</v>
       </c>
       <c r="N74" s="6">
-        <v>3.4459999999999998E-3</v>
+        <v>3.4749999999999998E-3</v>
       </c>
       <c r="O74" s="11" t="s">
         <v>212</v>
@@ -6528,43 +6532,43 @@
     </row>
     <row r="75" spans="2:15">
       <c r="B75" s="6">
-        <v>4.5511000000000003E-2</v>
+        <v>4.4595999999999997E-2</v>
       </c>
       <c r="C75" s="11" t="s">
         <v>93</v>
       </c>
       <c r="D75" s="6">
-        <v>4.5511000000000003E-2</v>
+        <v>4.4595999999999997E-2</v>
       </c>
       <c r="E75" s="11" t="s">
         <v>813</v>
       </c>
       <c r="F75" s="6">
-        <v>4.5511000000000003E-2</v>
+        <v>4.4595999999999997E-2</v>
       </c>
       <c r="G75" s="11" t="s">
         <v>693</v>
       </c>
       <c r="H75" s="6">
-        <v>4.5511000000000003E-2</v>
+        <v>4.4595999999999997E-2</v>
       </c>
       <c r="I75" s="11" t="s">
         <v>573</v>
       </c>
       <c r="J75" s="6">
-        <v>4.5511000000000003E-2</v>
+        <v>4.4595999999999997E-2</v>
       </c>
       <c r="K75" s="11" t="s">
         <v>453</v>
       </c>
       <c r="L75" s="6">
-        <v>4.5511000000000003E-2</v>
+        <v>4.4595999999999997E-2</v>
       </c>
       <c r="M75" s="11" t="s">
         <v>333</v>
       </c>
       <c r="N75" s="6">
-        <v>4.5511000000000003E-2</v>
+        <v>4.4595999999999997E-2</v>
       </c>
       <c r="O75" s="11" t="s">
         <v>213</v>
@@ -6572,43 +6576,43 @@
     </row>
     <row r="76" spans="2:15">
       <c r="B76" s="6">
-        <v>8.4900000000000004E-4</v>
+        <v>8.5300000000000003E-4</v>
       </c>
       <c r="C76" s="11" t="s">
         <v>94</v>
       </c>
       <c r="D76" s="6">
-        <v>8.4900000000000004E-4</v>
+        <v>8.5300000000000003E-4</v>
       </c>
       <c r="E76" s="11" t="s">
         <v>814</v>
       </c>
       <c r="F76" s="6">
-        <v>8.4900000000000004E-4</v>
+        <v>8.5300000000000003E-4</v>
       </c>
       <c r="G76" s="11" t="s">
         <v>694</v>
       </c>
       <c r="H76" s="6">
-        <v>8.4900000000000004E-4</v>
+        <v>8.5300000000000003E-4</v>
       </c>
       <c r="I76" s="11" t="s">
         <v>574</v>
       </c>
       <c r="J76" s="6">
-        <v>8.4900000000000004E-4</v>
+        <v>8.5300000000000003E-4</v>
       </c>
       <c r="K76" s="11" t="s">
         <v>454</v>
       </c>
       <c r="L76" s="6">
-        <v>8.4900000000000004E-4</v>
+        <v>8.5300000000000003E-4</v>
       </c>
       <c r="M76" s="11" t="s">
         <v>334</v>
       </c>
       <c r="N76" s="6">
-        <v>8.4900000000000004E-4</v>
+        <v>8.5300000000000003E-4</v>
       </c>
       <c r="O76" s="11" t="s">
         <v>214</v>
@@ -6616,43 +6620,43 @@
     </row>
     <row r="77" spans="2:15">
       <c r="B77" s="6">
-        <v>1.1299999999999999E-3</v>
+        <v>1.1529999999999999E-3</v>
       </c>
       <c r="C77" s="11" t="s">
         <v>95</v>
       </c>
       <c r="D77" s="6">
-        <v>1.1299999999999999E-3</v>
+        <v>1.1529999999999999E-3</v>
       </c>
       <c r="E77" s="11" t="s">
         <v>815</v>
       </c>
       <c r="F77" s="6">
-        <v>1.1299999999999999E-3</v>
+        <v>1.1529999999999999E-3</v>
       </c>
       <c r="G77" s="11" t="s">
         <v>695</v>
       </c>
       <c r="H77" s="6">
-        <v>1.1299999999999999E-3</v>
+        <v>1.1529999999999999E-3</v>
       </c>
       <c r="I77" s="11" t="s">
         <v>575</v>
       </c>
       <c r="J77" s="6">
-        <v>1.1299999999999999E-3</v>
+        <v>1.1529999999999999E-3</v>
       </c>
       <c r="K77" s="11" t="s">
         <v>455</v>
       </c>
       <c r="L77" s="6">
-        <v>1.1299999999999999E-3</v>
+        <v>1.1529999999999999E-3</v>
       </c>
       <c r="M77" s="11" t="s">
         <v>335</v>
       </c>
       <c r="N77" s="6">
-        <v>1.1299999999999999E-3</v>
+        <v>1.1529999999999999E-3</v>
       </c>
       <c r="O77" s="11" t="s">
         <v>215</v>
@@ -6660,43 +6664,43 @@
     </row>
     <row r="78" spans="2:15">
       <c r="B78" s="6">
-        <v>4.0499999999999998E-4</v>
+        <v>4.0400000000000001E-4</v>
       </c>
       <c r="C78" s="11" t="s">
         <v>96</v>
       </c>
       <c r="D78" s="6">
-        <v>4.0499999999999998E-4</v>
+        <v>4.0400000000000001E-4</v>
       </c>
       <c r="E78" s="11" t="s">
         <v>816</v>
       </c>
       <c r="F78" s="6">
-        <v>4.0499999999999998E-4</v>
+        <v>4.0400000000000001E-4</v>
       </c>
       <c r="G78" s="11" t="s">
         <v>696</v>
       </c>
       <c r="H78" s="6">
-        <v>4.0499999999999998E-4</v>
+        <v>4.0400000000000001E-4</v>
       </c>
       <c r="I78" s="11" t="s">
         <v>576</v>
       </c>
       <c r="J78" s="6">
-        <v>4.0499999999999998E-4</v>
+        <v>4.0400000000000001E-4</v>
       </c>
       <c r="K78" s="11" t="s">
         <v>456</v>
       </c>
       <c r="L78" s="6">
-        <v>4.0499999999999998E-4</v>
+        <v>4.0400000000000001E-4</v>
       </c>
       <c r="M78" s="11" t="s">
         <v>336</v>
       </c>
       <c r="N78" s="6">
-        <v>4.0499999999999998E-4</v>
+        <v>4.0400000000000001E-4</v>
       </c>
       <c r="O78" s="11" t="s">
         <v>216</v>
@@ -6748,43 +6752,43 @@
     </row>
     <row r="80" spans="2:15">
       <c r="B80" s="6">
-        <v>4.8929999999999998E-3</v>
+        <v>4.895E-3</v>
       </c>
       <c r="C80" s="11" t="s">
         <v>98</v>
       </c>
       <c r="D80" s="6">
-        <v>4.8929999999999998E-3</v>
+        <v>4.895E-3</v>
       </c>
       <c r="E80" s="11" t="s">
         <v>818</v>
       </c>
       <c r="F80" s="6">
-        <v>4.8929999999999998E-3</v>
+        <v>4.895E-3</v>
       </c>
       <c r="G80" s="11" t="s">
         <v>698</v>
       </c>
       <c r="H80" s="6">
-        <v>4.8929999999999998E-3</v>
+        <v>4.895E-3</v>
       </c>
       <c r="I80" s="11" t="s">
         <v>578</v>
       </c>
       <c r="J80" s="6">
-        <v>4.8929999999999998E-3</v>
+        <v>4.895E-3</v>
       </c>
       <c r="K80" s="11" t="s">
         <v>458</v>
       </c>
       <c r="L80" s="6">
-        <v>4.8929999999999998E-3</v>
+        <v>4.895E-3</v>
       </c>
       <c r="M80" s="11" t="s">
         <v>338</v>
       </c>
       <c r="N80" s="6">
-        <v>4.8929999999999998E-3</v>
+        <v>4.895E-3</v>
       </c>
       <c r="O80" s="11" t="s">
         <v>218</v>
@@ -6968,43 +6972,43 @@
     </row>
     <row r="85" spans="2:15">
       <c r="B85" s="6">
-        <v>5.4520000000000002E-3</v>
+        <v>5.4539999999999996E-3</v>
       </c>
       <c r="C85" s="11" t="s">
         <v>103</v>
       </c>
       <c r="D85" s="6">
-        <v>5.4520000000000002E-3</v>
+        <v>5.4539999999999996E-3</v>
       </c>
       <c r="E85" s="11" t="s">
         <v>823</v>
       </c>
       <c r="F85" s="6">
-        <v>5.4520000000000002E-3</v>
+        <v>5.4539999999999996E-3</v>
       </c>
       <c r="G85" s="11" t="s">
         <v>703</v>
       </c>
       <c r="H85" s="6">
-        <v>5.4520000000000002E-3</v>
+        <v>5.4539999999999996E-3</v>
       </c>
       <c r="I85" s="11" t="s">
         <v>583</v>
       </c>
       <c r="J85" s="6">
-        <v>5.4520000000000002E-3</v>
+        <v>5.4539999999999996E-3</v>
       </c>
       <c r="K85" s="11" t="s">
         <v>463</v>
       </c>
       <c r="L85" s="6">
-        <v>5.4520000000000002E-3</v>
+        <v>5.4539999999999996E-3</v>
       </c>
       <c r="M85" s="11" t="s">
         <v>343</v>
       </c>
       <c r="N85" s="6">
-        <v>5.4520000000000002E-3</v>
+        <v>5.4539999999999996E-3</v>
       </c>
       <c r="O85" s="11" t="s">
         <v>223</v>
@@ -7144,43 +7148,43 @@
     </row>
     <row r="89" spans="2:15">
       <c r="B89" s="6">
-        <v>2.7179999999999999E-2</v>
+        <v>2.7193999999999999E-2</v>
       </c>
       <c r="C89" s="11" t="s">
         <v>107</v>
       </c>
       <c r="D89" s="6">
-        <v>2.7179999999999999E-2</v>
+        <v>2.7193999999999999E-2</v>
       </c>
       <c r="E89" s="11" t="s">
         <v>827</v>
       </c>
       <c r="F89" s="6">
-        <v>2.7179999999999999E-2</v>
+        <v>2.7193999999999999E-2</v>
       </c>
       <c r="G89" s="11" t="s">
         <v>707</v>
       </c>
       <c r="H89" s="6">
-        <v>2.7179999999999999E-2</v>
+        <v>2.7193999999999999E-2</v>
       </c>
       <c r="I89" s="11" t="s">
         <v>587</v>
       </c>
       <c r="J89" s="6">
-        <v>2.7179999999999999E-2</v>
+        <v>2.7193999999999999E-2</v>
       </c>
       <c r="K89" s="11" t="s">
         <v>467</v>
       </c>
       <c r="L89" s="6">
-        <v>2.7179999999999999E-2</v>
+        <v>2.7193999999999999E-2</v>
       </c>
       <c r="M89" s="11" t="s">
         <v>347</v>
       </c>
       <c r="N89" s="6">
-        <v>2.7179999999999999E-2</v>
+        <v>2.7193999999999999E-2</v>
       </c>
       <c r="O89" s="11" t="s">
         <v>227</v>
@@ -7188,43 +7192,43 @@
     </row>
     <row r="90" spans="2:15">
       <c r="B90" s="6">
-        <v>4.26E-4</v>
+        <v>4.2700000000000002E-4</v>
       </c>
       <c r="C90" s="11" t="s">
         <v>108</v>
       </c>
       <c r="D90" s="6">
-        <v>4.26E-4</v>
+        <v>4.2700000000000002E-4</v>
       </c>
       <c r="E90" s="11" t="s">
         <v>828</v>
       </c>
       <c r="F90" s="6">
-        <v>4.26E-4</v>
+        <v>4.2700000000000002E-4</v>
       </c>
       <c r="G90" s="11" t="s">
         <v>708</v>
       </c>
       <c r="H90" s="6">
-        <v>4.26E-4</v>
+        <v>4.2700000000000002E-4</v>
       </c>
       <c r="I90" s="11" t="s">
         <v>588</v>
       </c>
       <c r="J90" s="6">
-        <v>4.26E-4</v>
+        <v>4.2700000000000002E-4</v>
       </c>
       <c r="K90" s="11" t="s">
         <v>468</v>
       </c>
       <c r="L90" s="6">
-        <v>4.26E-4</v>
+        <v>4.2700000000000002E-4</v>
       </c>
       <c r="M90" s="11" t="s">
         <v>348</v>
       </c>
       <c r="N90" s="6">
-        <v>4.26E-4</v>
+        <v>4.2700000000000002E-4</v>
       </c>
       <c r="O90" s="11" t="s">
         <v>228</v>
@@ -7232,43 +7236,43 @@
     </row>
     <row r="91" spans="2:15">
       <c r="B91" s="6">
-        <v>2.6200000000000003E-4</v>
+        <v>2.63E-4</v>
       </c>
       <c r="C91" s="11" t="s">
         <v>109</v>
       </c>
       <c r="D91" s="6">
-        <v>2.6200000000000003E-4</v>
+        <v>2.63E-4</v>
       </c>
       <c r="E91" s="11" t="s">
         <v>829</v>
       </c>
       <c r="F91" s="6">
-        <v>2.6200000000000003E-4</v>
+        <v>2.63E-4</v>
       </c>
       <c r="G91" s="11" t="s">
         <v>709</v>
       </c>
       <c r="H91" s="6">
-        <v>2.6200000000000003E-4</v>
+        <v>2.63E-4</v>
       </c>
       <c r="I91" s="11" t="s">
         <v>589</v>
       </c>
       <c r="J91" s="6">
-        <v>2.6200000000000003E-4</v>
+        <v>2.63E-4</v>
       </c>
       <c r="K91" s="11" t="s">
         <v>469</v>
       </c>
       <c r="L91" s="6">
-        <v>2.6200000000000003E-4</v>
+        <v>2.63E-4</v>
       </c>
       <c r="M91" s="11" t="s">
         <v>349</v>
       </c>
       <c r="N91" s="6">
-        <v>2.6200000000000003E-4</v>
+        <v>2.63E-4</v>
       </c>
       <c r="O91" s="11" t="s">
         <v>229</v>
@@ -7408,43 +7412,43 @@
     </row>
     <row r="95" spans="2:15">
       <c r="B95" s="6">
-        <v>8.3990000000000002E-3</v>
+        <v>8.4019999999999997E-3</v>
       </c>
       <c r="C95" s="11" t="s">
         <v>113</v>
       </c>
       <c r="D95" s="6">
-        <v>8.3990000000000002E-3</v>
+        <v>8.4019999999999997E-3</v>
       </c>
       <c r="E95" s="11" t="s">
         <v>833</v>
       </c>
       <c r="F95" s="6">
-        <v>8.3990000000000002E-3</v>
+        <v>8.4019999999999997E-3</v>
       </c>
       <c r="G95" s="11" t="s">
         <v>713</v>
       </c>
       <c r="H95" s="6">
-        <v>8.3990000000000002E-3</v>
+        <v>8.4019999999999997E-3</v>
       </c>
       <c r="I95" s="11" t="s">
         <v>593</v>
       </c>
       <c r="J95" s="6">
-        <v>8.3990000000000002E-3</v>
+        <v>8.4019999999999997E-3</v>
       </c>
       <c r="K95" s="11" t="s">
         <v>473</v>
       </c>
       <c r="L95" s="6">
-        <v>8.3990000000000002E-3</v>
+        <v>8.4019999999999997E-3</v>
       </c>
       <c r="M95" s="11" t="s">
         <v>353</v>
       </c>
       <c r="N95" s="6">
-        <v>8.3990000000000002E-3</v>
+        <v>8.4019999999999997E-3</v>
       </c>
       <c r="O95" s="11" t="s">
         <v>233</v>
@@ -7540,43 +7544,43 @@
     </row>
     <row r="98" spans="2:15">
       <c r="B98" s="6">
-        <v>1.8445E-2</v>
+        <v>1.8460000000000001E-2</v>
       </c>
       <c r="C98" s="11" t="s">
         <v>116</v>
       </c>
       <c r="D98" s="6">
-        <v>1.8445E-2</v>
+        <v>1.8460000000000001E-2</v>
       </c>
       <c r="E98" s="11" t="s">
         <v>836</v>
       </c>
       <c r="F98" s="6">
-        <v>1.8445E-2</v>
+        <v>1.8460000000000001E-2</v>
       </c>
       <c r="G98" s="11" t="s">
         <v>716</v>
       </c>
       <c r="H98" s="6">
-        <v>1.8445E-2</v>
+        <v>1.8460000000000001E-2</v>
       </c>
       <c r="I98" s="11" t="s">
         <v>596</v>
       </c>
       <c r="J98" s="6">
-        <v>1.8445E-2</v>
+        <v>1.8460000000000001E-2</v>
       </c>
       <c r="K98" s="11" t="s">
         <v>476</v>
       </c>
       <c r="L98" s="6">
-        <v>1.8445E-2</v>
+        <v>1.8460000000000001E-2</v>
       </c>
       <c r="M98" s="11" t="s">
         <v>356</v>
       </c>
       <c r="N98" s="6">
-        <v>1.8445E-2</v>
+        <v>1.8460000000000001E-2</v>
       </c>
       <c r="O98" s="11" t="s">
         <v>236</v>
@@ -7584,43 +7588,43 @@
     </row>
     <row r="99" spans="2:15">
       <c r="B99" s="6">
-        <v>7.4100000000000001E-4</v>
+        <v>7.4200000000000004E-4</v>
       </c>
       <c r="C99" s="11" t="s">
         <v>117</v>
       </c>
       <c r="D99" s="6">
-        <v>7.4100000000000001E-4</v>
+        <v>7.4200000000000004E-4</v>
       </c>
       <c r="E99" s="11" t="s">
         <v>837</v>
       </c>
       <c r="F99" s="6">
-        <v>7.4100000000000001E-4</v>
+        <v>7.4200000000000004E-4</v>
       </c>
       <c r="G99" s="11" t="s">
         <v>717</v>
       </c>
       <c r="H99" s="6">
-        <v>7.4100000000000001E-4</v>
+        <v>7.4200000000000004E-4</v>
       </c>
       <c r="I99" s="11" t="s">
         <v>597</v>
       </c>
       <c r="J99" s="6">
-        <v>7.4100000000000001E-4</v>
+        <v>7.4200000000000004E-4</v>
       </c>
       <c r="K99" s="11" t="s">
         <v>477</v>
       </c>
       <c r="L99" s="6">
-        <v>7.4100000000000001E-4</v>
+        <v>7.4200000000000004E-4</v>
       </c>
       <c r="M99" s="11" t="s">
         <v>357</v>
       </c>
       <c r="N99" s="6">
-        <v>7.4100000000000001E-4</v>
+        <v>7.4200000000000004E-4</v>
       </c>
       <c r="O99" s="11" t="s">
         <v>237</v>
@@ -7628,43 +7632,43 @@
     </row>
     <row r="100" spans="2:15">
       <c r="B100" s="6">
-        <v>2.3519999999999999E-3</v>
+        <v>2.3570000000000002E-3</v>
       </c>
       <c r="C100" s="11" t="s">
         <v>118</v>
       </c>
       <c r="D100" s="6">
-        <v>2.3519999999999999E-3</v>
+        <v>2.3570000000000002E-3</v>
       </c>
       <c r="E100" s="11" t="s">
         <v>838</v>
       </c>
       <c r="F100" s="6">
-        <v>2.3519999999999999E-3</v>
+        <v>2.3570000000000002E-3</v>
       </c>
       <c r="G100" s="11" t="s">
         <v>718</v>
       </c>
       <c r="H100" s="6">
-        <v>2.3519999999999999E-3</v>
+        <v>2.3570000000000002E-3</v>
       </c>
       <c r="I100" s="11" t="s">
         <v>598</v>
       </c>
       <c r="J100" s="6">
-        <v>2.3519999999999999E-3</v>
+        <v>2.3570000000000002E-3</v>
       </c>
       <c r="K100" s="11" t="s">
         <v>478</v>
       </c>
       <c r="L100" s="6">
-        <v>2.3519999999999999E-3</v>
+        <v>2.3570000000000002E-3</v>
       </c>
       <c r="M100" s="11" t="s">
         <v>358</v>
       </c>
       <c r="N100" s="6">
-        <v>2.3519999999999999E-3</v>
+        <v>2.3570000000000002E-3</v>
       </c>
       <c r="O100" s="11" t="s">
         <v>238</v>
@@ -7672,43 +7676,43 @@
     </row>
     <row r="101" spans="2:15">
       <c r="B101" s="6">
-        <v>1.111E-3</v>
+        <v>1.1130000000000001E-3</v>
       </c>
       <c r="C101" s="11" t="s">
         <v>119</v>
       </c>
       <c r="D101" s="6">
-        <v>1.111E-3</v>
+        <v>1.1130000000000001E-3</v>
       </c>
       <c r="E101" s="11" t="s">
         <v>839</v>
       </c>
       <c r="F101" s="6">
-        <v>1.111E-3</v>
+        <v>1.1130000000000001E-3</v>
       </c>
       <c r="G101" s="11" t="s">
         <v>719</v>
       </c>
       <c r="H101" s="6">
-        <v>1.111E-3</v>
+        <v>1.1130000000000001E-3</v>
       </c>
       <c r="I101" s="11" t="s">
         <v>599</v>
       </c>
       <c r="J101" s="6">
-        <v>1.111E-3</v>
+        <v>1.1130000000000001E-3</v>
       </c>
       <c r="K101" s="11" t="s">
         <v>479</v>
       </c>
       <c r="L101" s="6">
-        <v>1.111E-3</v>
+        <v>1.1130000000000001E-3</v>
       </c>
       <c r="M101" s="11" t="s">
         <v>359</v>
       </c>
       <c r="N101" s="6">
-        <v>1.111E-3</v>
+        <v>1.1130000000000001E-3</v>
       </c>
       <c r="O101" s="11" t="s">
         <v>239</v>
@@ -7760,43 +7764,43 @@
     </row>
     <row r="103" spans="2:15">
       <c r="B103" s="6">
-        <v>4.6439999999999997E-3</v>
+        <v>4.6449999999999998E-3</v>
       </c>
       <c r="C103" s="11" t="s">
         <v>121</v>
       </c>
       <c r="D103" s="6">
-        <v>4.6439999999999997E-3</v>
+        <v>4.6449999999999998E-3</v>
       </c>
       <c r="E103" s="11" t="s">
         <v>841</v>
       </c>
       <c r="F103" s="6">
-        <v>4.6439999999999997E-3</v>
+        <v>4.6449999999999998E-3</v>
       </c>
       <c r="G103" s="11" t="s">
         <v>721</v>
       </c>
       <c r="H103" s="6">
-        <v>4.6439999999999997E-3</v>
+        <v>4.6449999999999998E-3</v>
       </c>
       <c r="I103" s="11" t="s">
         <v>601</v>
       </c>
       <c r="J103" s="6">
-        <v>4.6439999999999997E-3</v>
+        <v>4.6449999999999998E-3</v>
       </c>
       <c r="K103" s="11" t="s">
         <v>481</v>
       </c>
       <c r="L103" s="6">
-        <v>4.6439999999999997E-3</v>
+        <v>4.6449999999999998E-3</v>
       </c>
       <c r="M103" s="11" t="s">
         <v>361</v>
       </c>
       <c r="N103" s="6">
-        <v>4.6439999999999997E-3</v>
+        <v>4.6449999999999998E-3</v>
       </c>
       <c r="O103" s="11" t="s">
         <v>241</v>
@@ -7892,43 +7896,43 @@
     </row>
     <row r="106" spans="2:15">
       <c r="B106" s="6">
-        <v>7.6369999999999997E-3</v>
+        <v>7.7190000000000002E-3</v>
       </c>
       <c r="C106" s="11" t="s">
         <v>124</v>
       </c>
       <c r="D106" s="6">
-        <v>7.6369999999999997E-3</v>
+        <v>7.7190000000000002E-3</v>
       </c>
       <c r="E106" s="11" t="s">
         <v>844</v>
       </c>
       <c r="F106" s="6">
-        <v>7.6369999999999997E-3</v>
+        <v>7.7190000000000002E-3</v>
       </c>
       <c r="G106" s="11" t="s">
         <v>724</v>
       </c>
       <c r="H106" s="6">
-        <v>7.6369999999999997E-3</v>
+        <v>7.7190000000000002E-3</v>
       </c>
       <c r="I106" s="11" t="s">
         <v>604</v>
       </c>
       <c r="J106" s="6">
-        <v>7.6369999999999997E-3</v>
+        <v>7.7190000000000002E-3</v>
       </c>
       <c r="K106" s="11" t="s">
         <v>484</v>
       </c>
       <c r="L106" s="6">
-        <v>7.6369999999999997E-3</v>
+        <v>7.7190000000000002E-3</v>
       </c>
       <c r="M106" s="11" t="s">
         <v>364</v>
       </c>
       <c r="N106" s="6">
-        <v>7.6369999999999997E-3</v>
+        <v>7.7190000000000002E-3</v>
       </c>
       <c r="O106" s="11" t="s">
         <v>244</v>
@@ -7936,43 +7940,43 @@
     </row>
     <row r="107" spans="2:15">
       <c r="B107" s="6">
-        <v>7.45E-4</v>
+        <v>7.4299999999999995E-4</v>
       </c>
       <c r="C107" s="11" t="s">
         <v>125</v>
       </c>
       <c r="D107" s="6">
-        <v>7.45E-4</v>
+        <v>7.4299999999999995E-4</v>
       </c>
       <c r="E107" s="11" t="s">
         <v>845</v>
       </c>
       <c r="F107" s="6">
-        <v>7.45E-4</v>
+        <v>7.4299999999999995E-4</v>
       </c>
       <c r="G107" s="11" t="s">
         <v>725</v>
       </c>
       <c r="H107" s="6">
-        <v>7.45E-4</v>
+        <v>7.4299999999999995E-4</v>
       </c>
       <c r="I107" s="11" t="s">
         <v>605</v>
       </c>
       <c r="J107" s="6">
-        <v>7.45E-4</v>
+        <v>7.4299999999999995E-4</v>
       </c>
       <c r="K107" s="11" t="s">
         <v>485</v>
       </c>
       <c r="L107" s="6">
-        <v>7.45E-4</v>
+        <v>7.4299999999999995E-4</v>
       </c>
       <c r="M107" s="11" t="s">
         <v>365</v>
       </c>
       <c r="N107" s="6">
-        <v>7.45E-4</v>
+        <v>7.4299999999999995E-4</v>
       </c>
       <c r="O107" s="11" t="s">
         <v>245</v>
@@ -8024,43 +8028,43 @@
     </row>
     <row r="109" spans="2:15">
       <c r="B109" s="6">
-        <v>2.8019999999999998E-3</v>
+        <v>2.8119999999999998E-3</v>
       </c>
       <c r="C109" s="11" t="s">
         <v>127</v>
       </c>
       <c r="D109" s="6">
-        <v>2.8019999999999998E-3</v>
+        <v>2.8119999999999998E-3</v>
       </c>
       <c r="E109" s="11" t="s">
         <v>847</v>
       </c>
       <c r="F109" s="6">
-        <v>2.8019999999999998E-3</v>
+        <v>2.8119999999999998E-3</v>
       </c>
       <c r="G109" s="11" t="s">
         <v>727</v>
       </c>
       <c r="H109" s="6">
-        <v>2.8019999999999998E-3</v>
+        <v>2.8119999999999998E-3</v>
       </c>
       <c r="I109" s="11" t="s">
         <v>607</v>
       </c>
       <c r="J109" s="6">
-        <v>2.8019999999999998E-3</v>
+        <v>2.8119999999999998E-3</v>
       </c>
       <c r="K109" s="11" t="s">
         <v>487</v>
       </c>
       <c r="L109" s="6">
-        <v>2.8019999999999998E-3</v>
+        <v>2.8119999999999998E-3</v>
       </c>
       <c r="M109" s="11" t="s">
         <v>367</v>
       </c>
       <c r="N109" s="6">
-        <v>2.8019999999999998E-3</v>
+        <v>2.8119999999999998E-3</v>
       </c>
       <c r="O109" s="11" t="s">
         <v>247</v>
@@ -8068,43 +8072,43 @@
     </row>
     <row r="110" spans="2:15">
       <c r="B110" s="6">
-        <v>2.8419999999999999E-3</v>
+        <v>2.846E-3</v>
       </c>
       <c r="C110" s="11" t="s">
         <v>128</v>
       </c>
       <c r="D110" s="6">
-        <v>2.8419999999999999E-3</v>
+        <v>2.846E-3</v>
       </c>
       <c r="E110" s="11" t="s">
         <v>848</v>
       </c>
       <c r="F110" s="6">
-        <v>2.8419999999999999E-3</v>
+        <v>2.846E-3</v>
       </c>
       <c r="G110" s="11" t="s">
         <v>728</v>
       </c>
       <c r="H110" s="6">
-        <v>2.8419999999999999E-3</v>
+        <v>2.846E-3</v>
       </c>
       <c r="I110" s="11" t="s">
         <v>608</v>
       </c>
       <c r="J110" s="6">
-        <v>2.8419999999999999E-3</v>
+        <v>2.846E-3</v>
       </c>
       <c r="K110" s="11" t="s">
         <v>488</v>
       </c>
       <c r="L110" s="6">
-        <v>2.8419999999999999E-3</v>
+        <v>2.846E-3</v>
       </c>
       <c r="M110" s="11" t="s">
         <v>368</v>
       </c>
       <c r="N110" s="6">
-        <v>2.8419999999999999E-3</v>
+        <v>2.846E-3</v>
       </c>
       <c r="O110" s="11" t="s">
         <v>248</v>
@@ -8156,43 +8160,43 @@
     </row>
     <row r="112" spans="2:15">
       <c r="B112" s="6">
-        <v>3.6812999999999999E-2</v>
+        <v>3.6989000000000001E-2</v>
       </c>
       <c r="C112" s="11" t="s">
         <v>130</v>
       </c>
       <c r="D112" s="6">
-        <v>3.6812999999999999E-2</v>
+        <v>3.6989000000000001E-2</v>
       </c>
       <c r="E112" s="11" t="s">
         <v>850</v>
       </c>
       <c r="F112" s="6">
-        <v>3.6812999999999999E-2</v>
+        <v>3.6989000000000001E-2</v>
       </c>
       <c r="G112" s="11" t="s">
         <v>730</v>
       </c>
       <c r="H112" s="6">
-        <v>3.6812999999999999E-2</v>
+        <v>3.6989000000000001E-2</v>
       </c>
       <c r="I112" s="11" t="s">
         <v>610</v>
       </c>
       <c r="J112" s="6">
-        <v>3.6812999999999999E-2</v>
+        <v>3.6989000000000001E-2</v>
       </c>
       <c r="K112" s="11" t="s">
         <v>490</v>
       </c>
       <c r="L112" s="6">
-        <v>3.6812999999999999E-2</v>
+        <v>3.6989000000000001E-2</v>
       </c>
       <c r="M112" s="11" t="s">
         <v>370</v>
       </c>
       <c r="N112" s="6">
-        <v>3.6812999999999999E-2</v>
+        <v>3.6989000000000001E-2</v>
       </c>
       <c r="O112" s="11" t="s">
         <v>250</v>
@@ -8244,43 +8248,43 @@
     </row>
     <row r="114" spans="1:15">
       <c r="B114" s="6">
-        <v>4.2729999999999999E-3</v>
+        <v>4.287E-3</v>
       </c>
       <c r="C114" s="11" t="s">
         <v>132</v>
       </c>
       <c r="D114" s="6">
-        <v>4.2729999999999999E-3</v>
+        <v>4.287E-3</v>
       </c>
       <c r="E114" s="11" t="s">
         <v>852</v>
       </c>
       <c r="F114" s="6">
-        <v>4.2729999999999999E-3</v>
+        <v>4.287E-3</v>
       </c>
       <c r="G114" s="11" t="s">
         <v>732</v>
       </c>
       <c r="H114" s="6">
-        <v>4.2729999999999999E-3</v>
+        <v>4.287E-3</v>
       </c>
       <c r="I114" s="11" t="s">
         <v>612</v>
       </c>
       <c r="J114" s="6">
-        <v>4.2729999999999999E-3</v>
+        <v>4.287E-3</v>
       </c>
       <c r="K114" s="11" t="s">
         <v>492</v>
       </c>
       <c r="L114" s="6">
-        <v>4.2729999999999999E-3</v>
+        <v>4.287E-3</v>
       </c>
       <c r="M114" s="11" t="s">
         <v>372</v>
       </c>
       <c r="N114" s="6">
-        <v>4.2729999999999999E-3</v>
+        <v>4.287E-3</v>
       </c>
       <c r="O114" s="11" t="s">
         <v>252</v>
@@ -8288,43 +8292,43 @@
     </row>
     <row r="115" spans="1:15">
       <c r="B115" s="6">
-        <v>3.6471999999999997E-2</v>
+        <v>3.3168999999999997E-2</v>
       </c>
       <c r="C115" s="11" t="s">
         <v>133</v>
       </c>
       <c r="D115" s="6">
-        <v>3.6471999999999997E-2</v>
+        <v>3.3168999999999997E-2</v>
       </c>
       <c r="E115" s="11" t="s">
         <v>853</v>
       </c>
       <c r="F115" s="6">
-        <v>3.6471999999999997E-2</v>
+        <v>3.3168999999999997E-2</v>
       </c>
       <c r="G115" s="11" t="s">
         <v>733</v>
       </c>
       <c r="H115" s="6">
-        <v>3.6471999999999997E-2</v>
+        <v>3.3168999999999997E-2</v>
       </c>
       <c r="I115" s="11" t="s">
         <v>613</v>
       </c>
       <c r="J115" s="6">
-        <v>3.6471999999999997E-2</v>
+        <v>3.3168999999999997E-2</v>
       </c>
       <c r="K115" s="11" t="s">
         <v>493</v>
       </c>
       <c r="L115" s="6">
-        <v>3.6471999999999997E-2</v>
+        <v>3.3168999999999997E-2</v>
       </c>
       <c r="M115" s="11" t="s">
         <v>373</v>
       </c>
       <c r="N115" s="6">
-        <v>3.6471999999999997E-2</v>
+        <v>3.3168999999999997E-2</v>
       </c>
       <c r="O115" s="11" t="s">
         <v>253</v>
@@ -8332,43 +8336,43 @@
     </row>
     <row r="116" spans="1:15">
       <c r="B116" s="6">
-        <v>1.2149999999999999E-3</v>
+        <v>1.219E-3</v>
       </c>
       <c r="C116" s="11" t="s">
         <v>134</v>
       </c>
       <c r="D116" s="6">
-        <v>1.2149999999999999E-3</v>
+        <v>1.219E-3</v>
       </c>
       <c r="E116" s="11" t="s">
         <v>854</v>
       </c>
       <c r="F116" s="6">
-        <v>1.2149999999999999E-3</v>
+        <v>1.219E-3</v>
       </c>
       <c r="G116" s="11" t="s">
         <v>734</v>
       </c>
       <c r="H116" s="6">
-        <v>1.2149999999999999E-3</v>
+        <v>1.219E-3</v>
       </c>
       <c r="I116" s="11" t="s">
         <v>614</v>
       </c>
       <c r="J116" s="6">
-        <v>1.2149999999999999E-3</v>
+        <v>1.219E-3</v>
       </c>
       <c r="K116" s="11" t="s">
         <v>494</v>
       </c>
       <c r="L116" s="6">
-        <v>1.2149999999999999E-3</v>
+        <v>1.219E-3</v>
       </c>
       <c r="M116" s="11" t="s">
         <v>374</v>
       </c>
       <c r="N116" s="6">
-        <v>1.2149999999999999E-3</v>
+        <v>1.219E-3</v>
       </c>
       <c r="O116" s="11" t="s">
         <v>254</v>
@@ -8376,43 +8380,43 @@
     </row>
     <row r="117" spans="1:15">
       <c r="B117" s="6">
-        <v>2.3119999999999998E-3</v>
+        <v>2.313E-3</v>
       </c>
       <c r="C117" s="11" t="s">
         <v>135</v>
       </c>
       <c r="D117" s="6">
-        <v>2.3119999999999998E-3</v>
+        <v>2.313E-3</v>
       </c>
       <c r="E117" s="11" t="s">
         <v>855</v>
       </c>
       <c r="F117" s="6">
-        <v>2.3119999999999998E-3</v>
+        <v>2.313E-3</v>
       </c>
       <c r="G117" s="11" t="s">
         <v>735</v>
       </c>
       <c r="H117" s="6">
-        <v>2.3119999999999998E-3</v>
+        <v>2.313E-3</v>
       </c>
       <c r="I117" s="11" t="s">
         <v>615</v>
       </c>
       <c r="J117" s="6">
-        <v>2.3119999999999998E-3</v>
+        <v>2.313E-3</v>
       </c>
       <c r="K117" s="11" t="s">
         <v>495</v>
       </c>
       <c r="L117" s="6">
-        <v>2.3119999999999998E-3</v>
+        <v>2.313E-3</v>
       </c>
       <c r="M117" s="11" t="s">
         <v>375</v>
       </c>
       <c r="N117" s="6">
-        <v>2.3119999999999998E-3</v>
+        <v>2.313E-3</v>
       </c>
       <c r="O117" s="11" t="s">
         <v>255</v>
@@ -8508,43 +8512,43 @@
     </row>
     <row r="120" spans="1:15">
       <c r="B120" s="6">
-        <v>7.2760000000000003E-3</v>
+        <v>7.2779999999999997E-3</v>
       </c>
       <c r="C120" s="11" t="s">
         <v>138</v>
       </c>
       <c r="D120" s="6">
-        <v>7.2760000000000003E-3</v>
+        <v>7.2779999999999997E-3</v>
       </c>
       <c r="E120" s="11" t="s">
         <v>858</v>
       </c>
       <c r="F120" s="6">
-        <v>7.2760000000000003E-3</v>
+        <v>7.2779999999999997E-3</v>
       </c>
       <c r="G120" s="11" t="s">
         <v>738</v>
       </c>
       <c r="H120" s="6">
-        <v>7.2760000000000003E-3</v>
+        <v>7.2779999999999997E-3</v>
       </c>
       <c r="I120" s="11" t="s">
         <v>618</v>
       </c>
       <c r="J120" s="6">
-        <v>7.2760000000000003E-3</v>
+        <v>7.2779999999999997E-3</v>
       </c>
       <c r="K120" s="11" t="s">
         <v>498</v>
       </c>
       <c r="L120" s="6">
-        <v>7.2760000000000003E-3</v>
+        <v>7.2779999999999997E-3</v>
       </c>
       <c r="M120" s="11" t="s">
         <v>378</v>
       </c>
       <c r="N120" s="6">
-        <v>7.2760000000000003E-3</v>
+        <v>7.2779999999999997E-3</v>
       </c>
       <c r="O120" s="11" t="s">
         <v>258</v>
@@ -8644,37 +8648,37 @@
       </c>
       <c r="B123" s="5">
         <f>AVERAGE(B3:B122)</f>
-        <v>8.6398916666666648E-3</v>
+        <v>8.6057250000000016E-3</v>
       </c>
       <c r="C123" s="13"/>
       <c r="D123" s="5">
         <f>AVERAGE(D3:D122)</f>
-        <v>8.6398916666666648E-3</v>
+        <v>8.6057250000000016E-3</v>
       </c>
       <c r="E123" s="13"/>
       <c r="F123" s="5">
         <f>AVERAGE(F3:F122)</f>
-        <v>8.6398916666666648E-3</v>
+        <v>8.6057250000000016E-3</v>
       </c>
       <c r="G123" s="13"/>
       <c r="H123" s="5">
         <f>AVERAGE(H3:H122)</f>
-        <v>8.6398916666666648E-3</v>
+        <v>8.6057250000000016E-3</v>
       </c>
       <c r="I123" s="13"/>
       <c r="J123" s="5">
         <f>AVERAGE(J3:J122)</f>
-        <v>8.6398916666666648E-3</v>
+        <v>8.6057250000000016E-3</v>
       </c>
       <c r="K123" s="13"/>
       <c r="L123" s="5">
         <f>AVERAGE(L3:L122)</f>
-        <v>8.6398916666666648E-3</v>
+        <v>8.6057250000000016E-3</v>
       </c>
       <c r="M123" s="13"/>
       <c r="N123" s="5">
         <f>AVERAGE(N3:N122)</f>
-        <v>8.6398916666666648E-3</v>
+        <v>8.6057250000000016E-3</v>
       </c>
       <c r="O123" s="13"/>
     </row>
@@ -8684,37 +8688,37 @@
       </c>
       <c r="B124" s="3">
         <f>MEDIAN(B3:B122)</f>
-        <v>4.5614999999999996E-3</v>
+        <v>4.5605000000000003E-3</v>
       </c>
       <c r="C124" s="10"/>
       <c r="D124" s="3">
         <f>MEDIAN(D3:D122)</f>
-        <v>4.5614999999999996E-3</v>
+        <v>4.5605000000000003E-3</v>
       </c>
       <c r="E124" s="10"/>
       <c r="F124" s="3">
         <f>MEDIAN(F3:F122)</f>
-        <v>4.5614999999999996E-3</v>
+        <v>4.5605000000000003E-3</v>
       </c>
       <c r="G124" s="10"/>
       <c r="H124" s="3">
         <f>MEDIAN(H3:H122)</f>
-        <v>4.5614999999999996E-3</v>
+        <v>4.5605000000000003E-3</v>
       </c>
       <c r="I124" s="10"/>
       <c r="J124" s="3">
         <f>MEDIAN(J3:J122)</f>
-        <v>4.5614999999999996E-3</v>
+        <v>4.5605000000000003E-3</v>
       </c>
       <c r="K124" s="10"/>
       <c r="L124" s="3">
         <f>MEDIAN(L3:L122)</f>
-        <v>4.5614999999999996E-3</v>
+        <v>4.5605000000000003E-3</v>
       </c>
       <c r="M124" s="10"/>
       <c r="N124" s="3">
         <f>MEDIAN(N3:N122)</f>
-        <v>4.5614999999999996E-3</v>
+        <v>4.5605000000000003E-3</v>
       </c>
       <c r="O124" s="10"/>
     </row>
@@ -8724,37 +8728,37 @@
       </c>
       <c r="B125" s="5">
         <f>AVERAGE(B3:B7,B12:B17,B21,B23:B26,B31,B34,B39:B47,B52:B57,B61,B63:B66,B71,B74,B79:B87,B92:B97,B101,B103:B106,B111,B114,B119:B122)</f>
-        <v>6.1087878787878802E-3</v>
+        <v>6.1122272727272744E-3</v>
       </c>
       <c r="C125" s="13"/>
       <c r="D125" s="5">
         <f>AVERAGE(D3:D7,D12:D17,D21,D23:D26,D31,D34,D39:D47,D52:D57,D61,D63:D66,D71,D74,D79:D87,D92:D97,D101,D103:D106,D111,D114,D119:D122)</f>
-        <v>6.1087878787878802E-3</v>
+        <v>6.1122272727272744E-3</v>
       </c>
       <c r="E125" s="13"/>
       <c r="F125" s="5">
         <f>AVERAGE(F3:F7,F12:F17,F21,F23:F26,F31,F34,F39:F47,F52:F57,F61,F63:F66,F71,F74,F79:F87,F92:F97,F101,F103:F106,F111,F114,F119:F122)</f>
-        <v>6.1087878787878802E-3</v>
+        <v>6.1122272727272744E-3</v>
       </c>
       <c r="G125" s="13"/>
       <c r="H125" s="5">
         <f>AVERAGE(H3:H7,H12:H17,H21,H23:H26,H31,H34,H39:H47,H52:H57,H61,H63:H66,H71,H74,H79:H87,H92:H97,H101,H103:H106,H111,H114,H119:H122)</f>
-        <v>6.1087878787878802E-3</v>
+        <v>6.1122272727272744E-3</v>
       </c>
       <c r="I125" s="13"/>
       <c r="J125" s="5">
         <f>AVERAGE(J3:J7,J12:J17,J21,J23:J26,J31,J34,J39:J47,J52:J57,J61,J63:J66,J71,J74,J79:J87,J92:J97,J101,J103:J106,J111,J114,J119:J122)</f>
-        <v>6.1087878787878802E-3</v>
+        <v>6.1122272727272744E-3</v>
       </c>
       <c r="K125" s="13"/>
       <c r="L125" s="5">
         <f>AVERAGE(L3:L7,L12:L17,L21,L23:L26,L31,L34,L39:L47,L52:L57,L61,L63:L66,L71,L74,L79:L87,L92:L97,L101,L103:L106,L111,L114,L119:L122)</f>
-        <v>6.1087878787878802E-3</v>
+        <v>6.1122272727272744E-3</v>
       </c>
       <c r="M125" s="13"/>
       <c r="N125" s="5">
         <f>AVERAGE(N3:N7,N12:N17,N21,N23:N26,N31,N34,N39:N47,N52:N57,N61,N63:N66,N71,N74,N79:N87,N92:N97,N101,N103:N106,N111,N114,N119:N122)</f>
-        <v>6.1087878787878802E-3</v>
+        <v>6.1122272727272744E-3</v>
       </c>
       <c r="O125" s="13"/>
     </row>
@@ -8764,37 +8768,37 @@
       </c>
       <c r="B126" s="3">
         <f>MEDIAN(B3:B7,B12:B17,B21,B23:B26,B31,B34,B39:B47,B52:B57,B61,B63:B66,B71,B74,B79:B87,B92:B97,B101,B103:B106,B111,B114,B119:B122)</f>
-        <v>5.6404999999999997E-3</v>
+        <v>5.6474999999999997E-3</v>
       </c>
       <c r="C126" s="10"/>
       <c r="D126" s="3">
         <f>MEDIAN(D3:D7,D12:D17,D21,D23:D26,D31,D34,D39:D47,D52:D57,D61,D63:D66,D71,D74,D79:D87,D92:D97,D101,D103:D106,D111,D114,D119:D122)</f>
-        <v>5.6404999999999997E-3</v>
+        <v>5.6474999999999997E-3</v>
       </c>
       <c r="E126" s="10"/>
       <c r="F126" s="3">
         <f>MEDIAN(F3:F7,F12:F17,F21,F23:F26,F31,F34,F39:F47,F52:F57,F61,F63:F66,F71,F74,F79:F87,F92:F97,F101,F103:F106,F111,F114,F119:F122)</f>
-        <v>5.6404999999999997E-3</v>
+        <v>5.6474999999999997E-3</v>
       </c>
       <c r="G126" s="10"/>
       <c r="H126" s="3">
         <f>MEDIAN(H3:H7,H12:H17,H21,H23:H26,H31,H34,H39:H47,H52:H57,H61,H63:H66,H71,H74,H79:H87,H92:H97,H101,H103:H106,H111,H114,H119:H122)</f>
-        <v>5.6404999999999997E-3</v>
+        <v>5.6474999999999997E-3</v>
       </c>
       <c r="I126" s="10"/>
       <c r="J126" s="3">
         <f>MEDIAN(J3:J7,J12:J17,J21,J23:J26,J31,J34,J39:J47,J52:J57,J61,J63:J66,J71,J74,J79:J87,J92:J97,J101,J103:J106,J111,J114,J119:J122)</f>
-        <v>5.6404999999999997E-3</v>
+        <v>5.6474999999999997E-3</v>
       </c>
       <c r="K126" s="10"/>
       <c r="L126" s="3">
         <f>MEDIAN(L3:L7,L12:L17,L21,L23:L26,L31,L34,L39:L47,L52:L57,L61,L63:L66,L71,L74,L79:L87,L92:L97,L101,L103:L106,L111,L114,L119:L122)</f>
-        <v>5.6404999999999997E-3</v>
+        <v>5.6474999999999997E-3</v>
       </c>
       <c r="M126" s="10"/>
       <c r="N126" s="3">
         <f>MEDIAN(N3:N7,N12:N17,N21,N23:N26,N31,N34,N39:N47,N52:N57,N61,N63:N66,N71,N74,N79:N87,N92:N97,N101,N103:N106,N111,N114,N119:N122)</f>
-        <v>5.6404999999999997E-3</v>
+        <v>5.6474999999999997E-3</v>
       </c>
       <c r="O126" s="10"/>
     </row>
@@ -8804,37 +8808,37 @@
       </c>
       <c r="B127" s="5">
         <f>AVERAGE(B8:B11,B18:B20,B22,B27:B30,B32:B33,B35:B38,B48:B51,B58:B60,B62,B67:B70,B72:B73,B75:B78,B88:B91,B98:B100,B102,B107:B110,B112:B113,B115:B118)</f>
-        <v>1.1733462962962966E-2</v>
+        <v>1.1653333333333342E-2</v>
       </c>
       <c r="C127" s="13"/>
       <c r="D127" s="5">
         <f>AVERAGE(D8:D11,D18:D20,D22,D27:D30,D32:D33,D35:D38,D48:D51,D58:D60,D62,D67:D70,D72:D73,D75:D78,D88:D91,D98:D100,D102,D107:D110,D112:D113,D115:D118)</f>
-        <v>1.1733462962962966E-2</v>
+        <v>1.1653333333333342E-2</v>
       </c>
       <c r="E127" s="13"/>
       <c r="F127" s="5">
         <f>AVERAGE(F8:F11,F18:F20,F22,F27:F30,F32:F33,F35:F38,F48:F51,F58:F60,F62,F67:F70,F72:F73,F75:F78,F88:F91,F98:F100,F102,F107:F110,F112:F113,F115:F118)</f>
-        <v>1.1733462962962966E-2</v>
+        <v>1.1653333333333342E-2</v>
       </c>
       <c r="G127" s="13"/>
       <c r="H127" s="5">
         <f>AVERAGE(H8:H11,H18:H20,H22,H27:H30,H32:H33,H35:H38,H48:H51,H58:H60,H62,H67:H70,H72:H73,H75:H78,H88:H91,H98:H100,H102,H107:H110,H112:H113,H115:H118)</f>
-        <v>1.1733462962962966E-2</v>
+        <v>1.1653333333333342E-2</v>
       </c>
       <c r="I127" s="13"/>
       <c r="J127" s="5">
         <f>AVERAGE(J8:J11,J18:J20,J22,J27:J30,J32:J33,J35:J38,J48:J51,J58:J60,J62,J67:J70,J72:J73,J75:J78,J88:J91,J98:J100,J102,J107:J110,J112:J113,J115:J118)</f>
-        <v>1.1733462962962966E-2</v>
+        <v>1.1653333333333342E-2</v>
       </c>
       <c r="K127" s="13"/>
       <c r="L127" s="5">
         <f>AVERAGE(L8:L11,L18:L20,L22,L27:L30,L32:L33,L35:L38,L48:L51,L58:L60,L62,L67:L70,L72:L73,L75:L78,L88:L91,L98:L100,L102,L107:L110,L112:L113,L115:L118)</f>
-        <v>1.1733462962962966E-2</v>
+        <v>1.1653333333333342E-2</v>
       </c>
       <c r="M127" s="13"/>
       <c r="N127" s="5">
         <f>AVERAGE(N8:N11,N18:N20,N22,N27:N30,N32:N33,N35:N38,N48:N51,N58:N60,N62,N67:N70,N72:N73,N75:N78,N88:N91,N98:N100,N102,N107:N110,N112:N113,N115:N118)</f>
-        <v>1.1733462962962966E-2</v>
+        <v>1.1653333333333342E-2</v>
       </c>
       <c r="O127" s="13"/>
     </row>
@@ -8884,37 +8888,37 @@
       </c>
       <c r="B129" s="5">
         <f>AVERAGE(B43:B82)</f>
-        <v>7.5818499999999985E-3</v>
+        <v>7.5681249999999976E-3</v>
       </c>
       <c r="C129" s="13"/>
       <c r="D129" s="5">
         <f>AVERAGE(D43:D82)</f>
-        <v>7.5818499999999985E-3</v>
+        <v>7.5681249999999976E-3</v>
       </c>
       <c r="E129" s="13"/>
       <c r="F129" s="5">
         <f>AVERAGE(F43:F82)</f>
-        <v>7.5818499999999985E-3</v>
+        <v>7.5681249999999976E-3</v>
       </c>
       <c r="G129" s="13"/>
       <c r="H129" s="5">
         <f>AVERAGE(H43:H82)</f>
-        <v>7.5818499999999985E-3</v>
+        <v>7.5681249999999976E-3</v>
       </c>
       <c r="I129" s="13"/>
       <c r="J129" s="5">
         <f>AVERAGE(J43:J82)</f>
-        <v>7.5818499999999985E-3</v>
+        <v>7.5681249999999976E-3</v>
       </c>
       <c r="K129" s="13"/>
       <c r="L129" s="5">
         <f>AVERAGE(L43:L82)</f>
-        <v>7.5818499999999985E-3</v>
+        <v>7.5681249999999976E-3</v>
       </c>
       <c r="M129" s="13"/>
       <c r="N129" s="5">
         <f>AVERAGE(N43:N82)</f>
-        <v>7.5818499999999985E-3</v>
+        <v>7.5681249999999976E-3</v>
       </c>
       <c r="O129" s="13"/>
     </row>
@@ -8924,37 +8928,37 @@
       </c>
       <c r="B130" s="3">
         <f>MEDIAN(B43:B82)</f>
-        <v>4.3024999999999999E-3</v>
+        <v>4.3239999999999997E-3</v>
       </c>
       <c r="C130" s="10"/>
       <c r="D130" s="3">
         <f>MEDIAN(D43:D82)</f>
-        <v>4.3024999999999999E-3</v>
+        <v>4.3239999999999997E-3</v>
       </c>
       <c r="E130" s="10"/>
       <c r="F130" s="3">
         <f>MEDIAN(F43:F82)</f>
-        <v>4.3024999999999999E-3</v>
+        <v>4.3239999999999997E-3</v>
       </c>
       <c r="G130" s="10"/>
       <c r="H130" s="3">
         <f>MEDIAN(H43:H82)</f>
-        <v>4.3024999999999999E-3</v>
+        <v>4.3239999999999997E-3</v>
       </c>
       <c r="I130" s="10"/>
       <c r="J130" s="3">
         <f>MEDIAN(J43:J82)</f>
-        <v>4.3024999999999999E-3</v>
+        <v>4.3239999999999997E-3</v>
       </c>
       <c r="K130" s="10"/>
       <c r="L130" s="3">
         <f>MEDIAN(L43:L82)</f>
-        <v>4.3024999999999999E-3</v>
+        <v>4.3239999999999997E-3</v>
       </c>
       <c r="M130" s="10"/>
       <c r="N130" s="3">
         <f>MEDIAN(N43:N82)</f>
-        <v>4.3024999999999999E-3</v>
+        <v>4.3239999999999997E-3</v>
       </c>
       <c r="O130" s="10"/>
     </row>
@@ -8964,37 +8968,37 @@
       </c>
       <c r="B131" s="5">
         <f>AVERAGE(B83:B122)</f>
-        <v>9.3313249999999997E-3</v>
+        <v>9.2571500000000004E-3</v>
       </c>
       <c r="C131" s="13"/>
       <c r="D131" s="5">
         <f>AVERAGE(D83:D122)</f>
-        <v>9.3313249999999997E-3</v>
+        <v>9.2571500000000004E-3</v>
       </c>
       <c r="E131" s="13"/>
       <c r="F131" s="5">
         <f>AVERAGE(F83:F122)</f>
-        <v>9.3313249999999997E-3</v>
+        <v>9.2571500000000004E-3</v>
       </c>
       <c r="G131" s="13"/>
       <c r="H131" s="5">
         <f>AVERAGE(H83:H122)</f>
-        <v>9.3313249999999997E-3</v>
+        <v>9.2571500000000004E-3</v>
       </c>
       <c r="I131" s="13"/>
       <c r="J131" s="5">
         <f>AVERAGE(J83:J122)</f>
-        <v>9.3313249999999997E-3</v>
+        <v>9.2571500000000004E-3</v>
       </c>
       <c r="K131" s="13"/>
       <c r="L131" s="5">
         <f>AVERAGE(L83:L122)</f>
-        <v>9.3313249999999997E-3</v>
+        <v>9.2571500000000004E-3</v>
       </c>
       <c r="M131" s="13"/>
       <c r="N131" s="5">
         <f>AVERAGE(N83:N122)</f>
-        <v>9.3313249999999997E-3</v>
+        <v>9.2571500000000004E-3</v>
       </c>
       <c r="O131" s="13"/>
     </row>
@@ -9004,37 +9008,37 @@
       </c>
       <c r="B132" s="3">
         <f>MEDIAN(B83:B122)</f>
-        <v>4.4029999999999998E-3</v>
+        <v>4.4099999999999999E-3</v>
       </c>
       <c r="C132" s="10"/>
       <c r="D132" s="3">
         <f>MEDIAN(D83:D122)</f>
-        <v>4.4029999999999998E-3</v>
+        <v>4.4099999999999999E-3</v>
       </c>
       <c r="E132" s="10"/>
       <c r="F132" s="3">
         <f>MEDIAN(F83:F122)</f>
-        <v>4.4029999999999998E-3</v>
+        <v>4.4099999999999999E-3</v>
       </c>
       <c r="G132" s="10"/>
       <c r="H132" s="3">
         <f>MEDIAN(H83:H122)</f>
-        <v>4.4029999999999998E-3</v>
+        <v>4.4099999999999999E-3</v>
       </c>
       <c r="I132" s="10"/>
       <c r="J132" s="3">
         <f>MEDIAN(J83:J122)</f>
-        <v>4.4029999999999998E-3</v>
+        <v>4.4099999999999999E-3</v>
       </c>
       <c r="K132" s="10"/>
       <c r="L132" s="3">
         <f>MEDIAN(L83:L122)</f>
-        <v>4.4029999999999998E-3</v>
+        <v>4.4099999999999999E-3</v>
       </c>
       <c r="M132" s="10"/>
       <c r="N132" s="3">
         <f>MEDIAN(N83:N122)</f>
-        <v>4.4029999999999998E-3</v>
+        <v>4.4099999999999999E-3</v>
       </c>
       <c r="O132" s="10"/>
     </row>
@@ -9044,37 +9048,37 @@
       </c>
       <c r="B133" s="5">
         <f>AVERAGE(B3:B42)</f>
-        <v>9.0065000000000006E-3</v>
+        <v>8.9919000000000006E-3</v>
       </c>
       <c r="C133" s="13"/>
       <c r="D133" s="5">
         <f>AVERAGE(D3:D42)</f>
-        <v>9.0065000000000006E-3</v>
+        <v>8.9919000000000006E-3</v>
       </c>
       <c r="E133" s="13"/>
       <c r="F133" s="5">
         <f>AVERAGE(F3:F42)</f>
-        <v>9.0065000000000006E-3</v>
+        <v>8.9919000000000006E-3</v>
       </c>
       <c r="G133" s="13"/>
       <c r="H133" s="5">
         <f>AVERAGE(H3:H42)</f>
-        <v>9.0065000000000006E-3</v>
+        <v>8.9919000000000006E-3</v>
       </c>
       <c r="I133" s="13"/>
       <c r="J133" s="5">
         <f>AVERAGE(J3:J42)</f>
-        <v>9.0065000000000006E-3</v>
+        <v>8.9919000000000006E-3</v>
       </c>
       <c r="K133" s="13"/>
       <c r="L133" s="5">
         <f>AVERAGE(L3:L42)</f>
-        <v>9.0065000000000006E-3</v>
+        <v>8.9919000000000006E-3</v>
       </c>
       <c r="M133" s="13"/>
       <c r="N133" s="5">
         <f>AVERAGE(N3:N42)</f>
-        <v>9.0065000000000006E-3</v>
+        <v>8.9919000000000006E-3</v>
       </c>
       <c r="O133" s="13"/>
     </row>
@@ -9084,37 +9088,37 @@
       </c>
       <c r="B134" s="3">
         <f>MEDIAN(B3:B42)</f>
-        <v>5.8954999999999997E-3</v>
+        <v>5.8969999999999995E-3</v>
       </c>
       <c r="C134" s="10"/>
       <c r="D134" s="3">
         <f>MEDIAN(D3:D42)</f>
-        <v>5.8954999999999997E-3</v>
+        <v>5.8969999999999995E-3</v>
       </c>
       <c r="E134" s="10"/>
       <c r="F134" s="3">
         <f>MEDIAN(F3:F42)</f>
-        <v>5.8954999999999997E-3</v>
+        <v>5.8969999999999995E-3</v>
       </c>
       <c r="G134" s="10"/>
       <c r="H134" s="3">
         <f>MEDIAN(H3:H42)</f>
-        <v>5.8954999999999997E-3</v>
+        <v>5.8969999999999995E-3</v>
       </c>
       <c r="I134" s="10"/>
       <c r="J134" s="3">
         <f>MEDIAN(J3:J42)</f>
-        <v>5.8954999999999997E-3</v>
+        <v>5.8969999999999995E-3</v>
       </c>
       <c r="K134" s="10"/>
       <c r="L134" s="3">
         <f>MEDIAN(L3:L42)</f>
-        <v>5.8954999999999997E-3</v>
+        <v>5.8969999999999995E-3</v>
       </c>
       <c r="M134" s="10"/>
       <c r="N134" s="3">
         <f>MEDIAN(N3:N42)</f>
-        <v>5.8954999999999997E-3</v>
+        <v>5.8969999999999995E-3</v>
       </c>
       <c r="O134" s="10"/>
     </row>
